--- a/CSVValidator/badania/wyniki_profiler.xlsx
+++ b/CSVValidator/badania/wyniki_profiler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wyniki_profiler" sheetId="1" state="visible" r:id="rId3"/>
@@ -1935,11 +1935,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58869640"/>
-        <c:axId val="78097102"/>
+        <c:axId val="37151701"/>
+        <c:axId val="22613594"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58869640"/>
+        <c:axId val="37151701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -2008,12 +2008,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78097102"/>
+        <c:crossAx val="22613594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78097102"/>
+        <c:axId val="22613594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58869640"/>
+        <c:crossAx val="37151701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3074,7 +3074,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.895666666666667</c:v>
+                  <c:v>0.929</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.36633333333333</c:v>
@@ -3486,11 +3486,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24484933"/>
-        <c:axId val="16505327"/>
+        <c:axId val="99304671"/>
+        <c:axId val="6702722"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24484933"/>
+        <c:axId val="99304671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -3559,12 +3559,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16505327"/>
+        <c:crossAx val="6702722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16505327"/>
+        <c:axId val="6702722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24484933"/>
+        <c:crossAx val="99304671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4625,7 +4625,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.22</c:v>
+                  <c:v>1.18666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.978</c:v>
@@ -5037,11 +5037,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4931260"/>
-        <c:axId val="25332329"/>
+        <c:axId val="18285586"/>
+        <c:axId val="82878617"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4931260"/>
+        <c:axId val="18285586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -5110,12 +5110,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25332329"/>
+        <c:crossAx val="82878617"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25332329"/>
+        <c:axId val="82878617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,7 +5191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4931260"/>
+        <c:crossAx val="18285586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6588,11 +6588,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="64605970"/>
-        <c:axId val="73284555"/>
+        <c:axId val="86352863"/>
+        <c:axId val="17971883"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64605970"/>
+        <c:axId val="86352863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -6661,12 +6661,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73284555"/>
+        <c:crossAx val="17971883"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73284555"/>
+        <c:axId val="17971883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6742,7 +6742,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64605970"/>
+        <c:crossAx val="86352863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7099,11 +7099,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13824904"/>
-        <c:axId val="39306908"/>
+        <c:axId val="80168645"/>
+        <c:axId val="3391792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13824904"/>
+        <c:axId val="80168645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -7172,12 +7172,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39306908"/>
+        <c:crossAx val="3391792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39306908"/>
+        <c:axId val="3391792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7253,7 +7253,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13824904"/>
+        <c:crossAx val="80168645"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7588,7 +7588,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.02626666666667</c:v>
+                  <c:v>1.03293333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.338</c:v>
@@ -7610,11 +7610,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18735478"/>
-        <c:axId val="29254392"/>
+        <c:axId val="51902282"/>
+        <c:axId val="60558274"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18735478"/>
+        <c:axId val="51902282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -7683,12 +7683,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29254392"/>
+        <c:crossAx val="60558274"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29254392"/>
+        <c:axId val="60558274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7764,7 +7764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18735478"/>
+        <c:crossAx val="51902282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8121,11 +8121,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13980712"/>
-        <c:axId val="71300803"/>
+        <c:axId val="99142899"/>
+        <c:axId val="88358850"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13980712"/>
+        <c:axId val="99142899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -8194,12 +8194,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71300803"/>
+        <c:crossAx val="88358850"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71300803"/>
+        <c:axId val="88358850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8275,7 +8275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13980712"/>
+        <c:crossAx val="99142899"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8632,11 +8632,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47546619"/>
-        <c:axId val="4520922"/>
+        <c:axId val="78277946"/>
+        <c:axId val="29381349"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47546619"/>
+        <c:axId val="78277946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -8705,12 +8705,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4520922"/>
+        <c:crossAx val="29381349"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4520922"/>
+        <c:axId val="29381349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47546619"/>
+        <c:crossAx val="78277946"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8850,9 +8850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>515160</xdr:colOff>
+      <xdr:colOff>514800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8861,7 +8861,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11035080" y="325440"/>
-        <a:ext cx="8643240" cy="4861440"/>
+        <a:ext cx="8642880" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8880,9 +8880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8891,7 +8891,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11050920" y="5566320"/>
-        <a:ext cx="8643240" cy="4861440"/>
+        <a:ext cx="8642880" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8910,9 +8910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>523080</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8921,7 +8921,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11043360" y="10907280"/>
-        <a:ext cx="8643240" cy="4861440"/>
+        <a:ext cx="8642880" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8940,9 +8940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>515160</xdr:colOff>
+      <xdr:colOff>514800</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8951,7 +8951,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11035080" y="16256520"/>
-        <a:ext cx="8643240" cy="4861440"/>
+        <a:ext cx="8642880" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8975,9 +8975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8986,7 +8986,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13865400" y="325440"/>
-        <a:ext cx="8643600" cy="4861440"/>
+        <a:ext cx="8643240" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9005,9 +9005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>508680</xdr:colOff>
+      <xdr:colOff>508320</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9016,7 +9016,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13858200" y="5558400"/>
-        <a:ext cx="8643600" cy="4861440"/>
+        <a:ext cx="8643240" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9035,9 +9035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9046,7 +9046,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13897080" y="10775880"/>
-        <a:ext cx="8643600" cy="4861440"/>
+        <a:ext cx="8643240" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9065,9 +9065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9076,7 +9076,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13865400" y="16093800"/>
-        <a:ext cx="8643600" cy="4861440"/>
+        <a:ext cx="8643240" cy="4861080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13552,7 +13552,7 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F23:F25 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17225,7 +17225,7 @@
   <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A182" activeCellId="1" sqref="F23:F25 A182"/>
+      <selection pane="topLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19720,186 +19720,51 @@
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="B139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="B141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="B145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="B152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="B156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="B158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="B164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="B166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0"/>
-      <c r="B174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0"/>
-      <c r="B176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0"/>
-      <c r="B177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0"/>
-      <c r="B181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
-      <c r="B183" s="0"/>
-    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -19919,7 +19784,7 @@
   <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F182" activeCellId="1" sqref="F23:F25 F182"/>
+      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22465,8 +22330,8 @@
   </sheetPr>
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23:F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23725,11 +23590,11 @@
       </c>
       <c r="H56" s="3" t="n">
         <f aca="false">AVERAGE(D56:D58)</f>
-        <v>0.895666666666667</v>
+        <v>0.929</v>
       </c>
       <c r="I56" s="3" t="n">
         <f aca="false">AVERAGE(E56:E58)</f>
-        <v>1.22</v>
+        <v>1.18666666666667</v>
       </c>
       <c r="J56" s="3" t="n">
         <f aca="false">AVERAGE(F56:F58)</f>
@@ -23759,10 +23624,10 @@
         <v>2.183</v>
       </c>
       <c r="D58" s="34" t="n">
-        <v>0.792</v>
+        <v>0.892</v>
       </c>
       <c r="E58" s="34" t="n">
-        <v>1.391</v>
+        <v>1.291</v>
       </c>
       <c r="F58" s="34" t="n">
         <v>2.86</v>
@@ -26505,8 +26370,8 @@
   </sheetPr>
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L103" activeCellId="1" sqref="F23:F25 L103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26691,7 +26556,7 @@
       </c>
       <c r="L5" s="3" t="n">
         <f aca="false">AVERAGE(H5,H11,H17,H23,H29)</f>
-        <v>1.02626666666667</v>
+        <v>1.03293333333333</v>
       </c>
       <c r="M5" s="3" t="n">
         <f aca="false">AVERAGE(I5,I11,I17,I23,I29)</f>
@@ -26823,7 +26688,7 @@
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">AVERAGE(D11:D13)</f>
-        <v>0.895666666666667</v>
+        <v>0.929</v>
       </c>
       <c r="I11" s="3" t="n">
         <f aca="false">AVERAGE(E11:E13)</f>
@@ -26857,7 +26722,7 @@
         <v>2.183</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.792</v>
+        <v>0.892</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>1.391</v>

--- a/CSVValidator/badania/wyniki_profiler.xlsx
+++ b/CSVValidator/badania/wyniki_profiler.xlsx
@@ -111,10 +111,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -332,7 +333,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,12 +498,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1935,11 +1944,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37151701"/>
-        <c:axId val="22613594"/>
+        <c:axId val="85538725"/>
+        <c:axId val="86528155"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37151701"/>
+        <c:axId val="85538725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -2008,12 +2017,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22613594"/>
+        <c:crossAx val="86528155"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22613594"/>
+        <c:axId val="86528155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2098,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37151701"/>
+        <c:crossAx val="85538725"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3486,11 +3495,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99304671"/>
-        <c:axId val="6702722"/>
+        <c:axId val="18374269"/>
+        <c:axId val="16671613"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99304671"/>
+        <c:axId val="18374269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -3559,12 +3568,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6702722"/>
+        <c:crossAx val="16671613"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6702722"/>
+        <c:axId val="16671613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3649,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99304671"/>
+        <c:crossAx val="18374269"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4758,7 +4767,7 @@
                   <c:v>0.655333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.068</c:v>
+                  <c:v>1.40133333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.77166666666667</c:v>
@@ -5037,11 +5046,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18285586"/>
-        <c:axId val="82878617"/>
+        <c:axId val="9662456"/>
+        <c:axId val="68676822"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18285586"/>
+        <c:axId val="9662456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -5110,12 +5119,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82878617"/>
+        <c:crossAx val="68676822"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82878617"/>
+        <c:axId val="68676822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,7 +5200,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18285586"/>
+        <c:crossAx val="9662456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6588,11 +6597,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86352863"/>
-        <c:axId val="17971883"/>
+        <c:axId val="71791634"/>
+        <c:axId val="44347464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86352863"/>
+        <c:axId val="71791634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -6661,12 +6670,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17971883"/>
+        <c:crossAx val="44347464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17971883"/>
+        <c:axId val="44347464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6742,7 +6751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86352863"/>
+        <c:crossAx val="71791634"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7099,11 +7108,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80168645"/>
-        <c:axId val="3391792"/>
+        <c:axId val="194857"/>
+        <c:axId val="82540386"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80168645"/>
+        <c:axId val="194857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -7172,12 +7181,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3391792"/>
+        <c:crossAx val="82540386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3391792"/>
+        <c:axId val="82540386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7253,7 +7262,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80168645"/>
+        <c:crossAx val="194857"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7610,11 +7619,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51902282"/>
-        <c:axId val="60558274"/>
+        <c:axId val="62870558"/>
+        <c:axId val="70242237"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51902282"/>
+        <c:axId val="62870558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -7683,12 +7692,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60558274"/>
+        <c:crossAx val="70242237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60558274"/>
+        <c:axId val="70242237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7764,7 +7773,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51902282"/>
+        <c:crossAx val="62870558"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7984,7 +7993,7 @@
                   <c:v>11.0224666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.1815333333333</c:v>
+                  <c:v>21.5148666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8102,7 +8111,7 @@
                   <c:v>0.753333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8396</c:v>
+                  <c:v>1.70627333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.29693333333333</c:v>
@@ -8121,11 +8130,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99142899"/>
-        <c:axId val="88358850"/>
+        <c:axId val="58591574"/>
+        <c:axId val="67895221"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99142899"/>
+        <c:axId val="58591574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -8194,12 +8203,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88358850"/>
+        <c:crossAx val="67895221"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88358850"/>
+        <c:axId val="67895221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8275,7 +8284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99142899"/>
+        <c:crossAx val="58591574"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8632,11 +8641,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78277946"/>
-        <c:axId val="29381349"/>
+        <c:axId val="12158393"/>
+        <c:axId val="72467660"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78277946"/>
+        <c:axId val="12158393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -8705,12 +8714,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29381349"/>
+        <c:crossAx val="72467660"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29381349"/>
+        <c:axId val="72467660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78277946"/>
+        <c:crossAx val="12158393"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8850,9 +8859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514800</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8861,7 +8870,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11035080" y="325440"/>
-        <a:ext cx="8642880" cy="4861080"/>
+        <a:ext cx="8642520" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8880,9 +8889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8891,7 +8900,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11050920" y="5566320"/>
-        <a:ext cx="8642880" cy="4861080"/>
+        <a:ext cx="8642520" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8910,9 +8919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8921,7 +8930,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11043360" y="10907280"/>
-        <a:ext cx="8642880" cy="4861080"/>
+        <a:ext cx="8642520" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8940,9 +8949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514800</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8951,7 +8960,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11035080" y="16256520"/>
-        <a:ext cx="8642880" cy="4861080"/>
+        <a:ext cx="8642520" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8975,9 +8984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>515520</xdr:colOff>
+      <xdr:colOff>515160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8986,7 +8995,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13865400" y="325440"/>
-        <a:ext cx="8643240" cy="4861080"/>
+        <a:ext cx="8642880" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9005,9 +9014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>508320</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9016,7 +9025,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13858200" y="5558400"/>
-        <a:ext cx="8643240" cy="4861080"/>
+        <a:ext cx="8642880" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9035,9 +9044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
+      <xdr:colOff>546840</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9046,7 +9055,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13897080" y="10775880"/>
-        <a:ext cx="8643240" cy="4861080"/>
+        <a:ext cx="8642880" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9065,9 +9074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>515520</xdr:colOff>
+      <xdr:colOff>515160</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9076,7 +9085,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13865400" y="16093800"/>
-        <a:ext cx="8643240" cy="4861080"/>
+        <a:ext cx="8642880" cy="4860720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -22330,8 +22339,8 @@
   </sheetPr>
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E95" activeCellId="0" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24441,7 +24450,7 @@
         <v>2.288</v>
       </c>
       <c r="E95" s="34" t="n">
-        <v>3.106</v>
+        <v>1.106</v>
       </c>
       <c r="F95" s="34" t="n">
         <v>4.73</v>
@@ -24456,7 +24465,7 @@
       </c>
       <c r="I95" s="3" t="n">
         <f aca="false">AVERAGE(E95:E97)</f>
-        <v>2.068</v>
+        <v>1.40133333333333</v>
       </c>
       <c r="J95" s="3" t="n">
         <f aca="false">AVERAGE(F95:F97)</f>
@@ -26370,8 +26379,8 @@
   </sheetPr>
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E177" activeCellId="0" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26442,19 +26451,19 @@
       <c r="F2" s="34" t="n">
         <v>1.77</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="41" t="n">
         <f aca="false">AVERAGE(C2:C4)</f>
         <v>1.45733333333333</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="41" t="n">
         <f aca="false">AVERAGE(D2:D4)</f>
         <v>1.013</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="41" t="n">
         <f aca="false">AVERAGE(E2:E4)</f>
         <v>0.444333333333333</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="41" t="n">
         <f aca="false">AVERAGE(F2:F4)</f>
         <v>1.77333333333333</v>
       </c>
@@ -26476,8 +26485,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="34" t="n">
         <v>1.478</v>
       </c>
@@ -26489,6 +26498,22 @@
       </c>
       <c r="F3" s="34" t="n">
         <v>1.77</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C2:C4)</f>
+        <v>0.041101500378129</v>
+      </c>
+      <c r="H3" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D2:D4)</f>
+        <v>0.157876534038469</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E2:E4)</f>
+        <v>0.151275686524085</v>
+      </c>
+      <c r="J3" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F2:F4)</f>
+        <v>0.00577350269189626</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -26496,8 +26521,8 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="34" t="n">
         <v>1.484</v>
       </c>
@@ -26510,13 +26535,17 @@
       <c r="F4" s="34" t="n">
         <v>1.78</v>
       </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="n">
+      <c r="A5" s="42" t="n">
         <v>100</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -26534,19 +26563,19 @@
       <c r="F5" s="34" t="n">
         <v>1.8</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="41" t="n">
         <f aca="false">AVERAGE(C5:C7)</f>
         <v>1.56833333333333</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="41" t="n">
         <f aca="false">AVERAGE(D5:D7)</f>
         <v>1.028</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="41" t="n">
         <f aca="false">AVERAGE(E5:E7)</f>
         <v>0.540333333333333</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="41" t="n">
         <f aca="false">AVERAGE(F5:F7)</f>
         <v>1.81333333333333</v>
       </c>
@@ -26568,8 +26597,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="34" t="n">
         <v>1.59</v>
       </c>
@@ -26582,10 +26611,26 @@
       <c r="F6" s="34" t="n">
         <v>1.82</v>
       </c>
+      <c r="G6" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C5:C7)</f>
+        <v>0.0604841577054135</v>
+      </c>
+      <c r="H6" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D5:D7)</f>
+        <v>0.0134536240470737</v>
+      </c>
+      <c r="I6" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E5:E7)</f>
+        <v>0.0739211291400052</v>
+      </c>
+      <c r="J6" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F5:F7)</f>
+        <v>0.0115470053837925</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="34" t="n">
         <v>1.615</v>
       </c>
@@ -26598,9 +26643,13 @@
       <c r="F7" s="34" t="n">
         <v>1.82</v>
       </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
@@ -26616,26 +26665,26 @@
       <c r="F8" s="34" t="n">
         <v>1.68</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="41" t="n">
         <f aca="false">AVERAGE(C8:C10)</f>
         <v>1.82066666666667</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="41" t="n">
         <f aca="false">AVERAGE(D8:D10)</f>
         <v>1.121</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="41" t="n">
         <f aca="false">AVERAGE(E8:E10)</f>
         <v>0.699666666666667</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="41" t="n">
         <f aca="false">AVERAGE(F8:F10)</f>
         <v>1.68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="34" t="n">
         <v>1.795</v>
       </c>
@@ -26648,10 +26697,26 @@
       <c r="F9" s="34" t="n">
         <v>1.68</v>
       </c>
+      <c r="G9" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C8:C10)</f>
+        <v>0.10292877796483</v>
+      </c>
+      <c r="H9" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D8:D10)</f>
+        <v>0.132283785854503</v>
+      </c>
+      <c r="I9" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E8:E10)</f>
+        <v>0.0300055550412475</v>
+      </c>
+      <c r="J9" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F8:F10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="34" t="n">
         <v>1.934</v>
       </c>
@@ -26664,9 +26729,13 @@
       <c r="F10" s="34" t="n">
         <v>1.68</v>
       </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="40" t="s">
         <v>15</v>
       </c>
@@ -26682,26 +26751,26 @@
       <c r="F11" s="34" t="n">
         <v>2.86</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="41" t="n">
         <f aca="false">AVERAGE(C11:C13)</f>
         <v>2.11566666666667</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="41" t="n">
         <f aca="false">AVERAGE(D11:D13)</f>
         <v>0.929</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="41" t="n">
         <f aca="false">AVERAGE(E11:E13)</f>
         <v>1.22</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="41" t="n">
         <f aca="false">AVERAGE(F11:F13)</f>
         <v>2.85333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="34" t="n">
         <v>2.113</v>
       </c>
@@ -26714,10 +26783,26 @@
       <c r="F12" s="34" t="n">
         <v>2.84</v>
       </c>
+      <c r="G12" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C11:C13)</f>
+        <v>0.0660403916806473</v>
+      </c>
+      <c r="H12" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D11:D13)</f>
+        <v>0.0325115364140177</v>
+      </c>
+      <c r="I12" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E11:E13)</f>
+        <v>0.150269757436418</v>
+      </c>
+      <c r="J12" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F11:F13)</f>
+        <v>0.0115470053837925</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="34" t="n">
         <v>2.183</v>
       </c>
@@ -26730,9 +26815,13 @@
       <c r="F13" s="34" t="n">
         <v>2.86</v>
       </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="40" t="s">
         <v>9</v>
       </c>
@@ -26748,26 +26837,26 @@
       <c r="F14" s="34" t="n">
         <v>1.68</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="41" t="n">
         <f aca="false">AVERAGE(C14:C16)</f>
         <v>1.643</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="41" t="n">
         <f aca="false">AVERAGE(D14:D16)</f>
         <v>1.034</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="41" t="n">
         <f aca="false">AVERAGE(E14:E16)</f>
         <v>0.609</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="41" t="n">
         <f aca="false">AVERAGE(F14:F16)</f>
         <v>1.68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="34" t="n">
         <v>1.636</v>
       </c>
@@ -26780,10 +26869,26 @@
       <c r="F15" s="34" t="n">
         <v>1.68</v>
       </c>
+      <c r="G15" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C14:C16)</f>
+        <v>0.0419404339510215</v>
+      </c>
+      <c r="H15" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D14:D16)</f>
+        <v>0.0806163755077094</v>
+      </c>
+      <c r="I15" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E14:E16)</f>
+        <v>0.0870172396712283</v>
+      </c>
+      <c r="J15" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F14:F16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="34" t="n">
         <v>1.688</v>
       </c>
@@ -26796,9 +26901,13 @@
       <c r="F16" s="34" t="n">
         <v>1.68</v>
       </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="40" t="s">
         <v>14</v>
       </c>
@@ -26814,26 +26923,26 @@
       <c r="F17" s="34" t="n">
         <v>1.9</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="41" t="n">
         <f aca="false">AVERAGE(C17:C19)</f>
         <v>1.70966666666667</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="41" t="n">
         <f aca="false">AVERAGE(D17:D19)</f>
         <v>1.05433333333333</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="41" t="n">
         <f aca="false">AVERAGE(E17:E19)</f>
         <v>0.655333333333333</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="41" t="n">
         <f aca="false">AVERAGE(F17:F19)</f>
         <v>1.88666666666667</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="34" t="n">
         <v>1.729</v>
       </c>
@@ -26846,10 +26955,26 @@
       <c r="F18" s="34" t="n">
         <v>1.88</v>
       </c>
+      <c r="G18" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C17:C19)</f>
+        <v>0.0661538610614176</v>
+      </c>
+      <c r="H18" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D17:D19)</f>
+        <v>0.0221885856541901</v>
+      </c>
+      <c r="I18" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E17:E19)</f>
+        <v>0.058183617396423</v>
+      </c>
+      <c r="J18" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F17:F19)</f>
+        <v>0.0115470053837925</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="34" t="n">
         <v>1.764</v>
       </c>
@@ -26862,9 +26987,13 @@
       <c r="F19" s="34" t="n">
         <v>1.88</v>
       </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="40" t="s">
         <v>8</v>
       </c>
@@ -26880,26 +27009,26 @@
       <c r="F20" s="34" t="n">
         <v>1.75</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="41" t="n">
         <f aca="false">AVERAGE(C20:C22)</f>
         <v>1.54266666666667</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="41" t="n">
         <f aca="false">AVERAGE(D20:D22)</f>
         <v>1.068</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="41" t="n">
         <f aca="false">AVERAGE(E20:E22)</f>
         <v>0.474666666666667</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="41" t="n">
         <f aca="false">AVERAGE(F20:F22)</f>
         <v>1.75666666666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="34" t="n">
         <v>1.505</v>
       </c>
@@ -26912,10 +27041,26 @@
       <c r="F21" s="34" t="n">
         <v>1.75</v>
       </c>
+      <c r="G21" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C20:C22)</f>
+        <v>0.0887148991620535</v>
+      </c>
+      <c r="H21" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D20:D22)</f>
+        <v>0.0407308237088327</v>
+      </c>
+      <c r="I21" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E20:E22)</f>
+        <v>0.0814022931699921</v>
+      </c>
+      <c r="J21" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F20:F22)</f>
+        <v>0.0115470053837925</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="34" t="n">
         <v>1.644</v>
       </c>
@@ -26928,9 +27073,13 @@
       <c r="F22" s="34" t="n">
         <v>1.77</v>
       </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
         <v>13</v>
       </c>
@@ -26946,26 +27095,26 @@
       <c r="F23" s="34" t="n">
         <v>1.8</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="41" t="n">
         <f aca="false">AVERAGE(C23:C25)</f>
         <v>1.58066666666667</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="41" t="n">
         <f aca="false">AVERAGE(D23:D25)</f>
         <v>1.11566666666667</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="41" t="n">
         <f aca="false">AVERAGE(E23:E25)</f>
         <v>0.465</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="41" t="n">
         <f aca="false">AVERAGE(F23:F25)</f>
         <v>1.80666666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="34" t="n">
         <v>1.568</v>
       </c>
@@ -26978,10 +27127,26 @@
       <c r="F24" s="34" t="n">
         <v>1.8</v>
       </c>
+      <c r="G24" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C23:C25)</f>
+        <v>0.0300721354967241</v>
+      </c>
+      <c r="H24" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D23:D25)</f>
+        <v>0.0482320778459038</v>
+      </c>
+      <c r="I24" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E23:E25)</f>
+        <v>0.0781728853247723</v>
+      </c>
+      <c r="J24" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F23:F25)</f>
+        <v>0.0115470053837925</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="34" t="n">
         <v>1.615</v>
       </c>
@@ -26994,9 +27159,13 @@
       <c r="F25" s="34" t="n">
         <v>1.82</v>
       </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="40" t="s">
         <v>7</v>
       </c>
@@ -27012,26 +27181,26 @@
       <c r="F26" s="34" t="n">
         <v>2.25</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="41" t="n">
         <f aca="false">AVERAGE(C26:C28)</f>
         <v>1.74433333333333</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="41" t="n">
         <f aca="false">AVERAGE(D26:D28)</f>
         <v>0.948333333333333</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="41" t="n">
         <f aca="false">AVERAGE(E26:E28)</f>
         <v>0.796</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="41" t="n">
         <f aca="false">AVERAGE(F26:F28)</f>
         <v>2.25666666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="34" t="n">
         <v>1.729</v>
       </c>
@@ -27044,10 +27213,26 @@
       <c r="F27" s="34" t="n">
         <v>2.26</v>
       </c>
+      <c r="G27" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C26:C28)</f>
+        <v>0.0488398744197129</v>
+      </c>
+      <c r="H27" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D26:D28)</f>
+        <v>0.0430155010819743</v>
+      </c>
+      <c r="I27" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E26:E28)</f>
+        <v>0.0903382532485547</v>
+      </c>
+      <c r="J27" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F26:F28)</f>
+        <v>0.00577350269189614</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="34" t="n">
         <v>1.799</v>
       </c>
@@ -27060,9 +27245,13 @@
       <c r="F28" s="34" t="n">
         <v>2.26</v>
       </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="40" t="s">
         <v>12</v>
       </c>
@@ -27078,26 +27267,26 @@
       <c r="F29" s="34" t="n">
         <v>2.39</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="41" t="n">
         <f aca="false">AVERAGE(C29:C31)</f>
         <v>1.92366666666667</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="41" t="n">
         <f aca="false">AVERAGE(D29:D31)</f>
         <v>1.03766666666667</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="41" t="n">
         <f aca="false">AVERAGE(E29:E31)</f>
         <v>0.886</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="41" t="n">
         <f aca="false">AVERAGE(F29:F31)</f>
         <v>2.32333333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="34" t="n">
         <v>1.898</v>
       </c>
@@ -27110,10 +27299,26 @@
       <c r="F30" s="34" t="n">
         <v>2.26</v>
       </c>
+      <c r="G30" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C29:C31)</f>
+        <v>0.0506392469664917</v>
+      </c>
+      <c r="H30" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D29:D31)</f>
+        <v>0.0468223593311287</v>
+      </c>
+      <c r="I30" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E29:E31)</f>
+        <v>0.0340734500748017</v>
+      </c>
+      <c r="J30" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F29:F31)</f>
+        <v>0.0650640709864773</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="34" t="n">
         <v>1.982</v>
       </c>
@@ -27126,6 +27331,10 @@
       <c r="F31" s="34" t="n">
         <v>2.32</v>
       </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="39" t="n">
@@ -27146,19 +27355,19 @@
       <c r="F32" s="34" t="n">
         <v>4.38</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="41" t="n">
         <f aca="false">AVERAGE(C32:C34)</f>
         <v>3.40433333333333</v>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="41" t="n">
         <f aca="false">AVERAGE(D32:D34)</f>
         <v>2.39066666666667</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="41" t="n">
         <f aca="false">AVERAGE(E32:E34)</f>
         <v>1.01366666666667</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="J32" s="41" t="n">
         <f aca="false">AVERAGE(F32:F34)</f>
         <v>4.37666666666667</v>
       </c>
@@ -27180,8 +27389,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="34" t="n">
         <v>3.371</v>
       </c>
@@ -27193,6 +27402,22 @@
       </c>
       <c r="F33" s="34" t="n">
         <v>4.37</v>
+      </c>
+      <c r="G33" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C32:C34)</f>
+        <v>0.0647868299373672</v>
+      </c>
+      <c r="H33" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D32:D34)</f>
+        <v>0.0571168393149808</v>
+      </c>
+      <c r="I33" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E32:E34)</f>
+        <v>0.0205507501890645</v>
+      </c>
+      <c r="J33" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F32:F34)</f>
+        <v>0.00577350269189614</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -27200,8 +27425,8 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="34" t="n">
         <v>3.479</v>
       </c>
@@ -27214,13 +27439,17 @@
       <c r="F34" s="34" t="n">
         <v>4.38</v>
       </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="n">
+      <c r="A35" s="42" t="n">
         <v>250</v>
       </c>
       <c r="B35" s="40" t="s">
@@ -27238,19 +27467,19 @@
       <c r="F35" s="34" t="n">
         <v>4.5</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="41" t="n">
         <f aca="false">AVERAGE(C35:C37)</f>
         <v>3.37366666666667</v>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="41" t="n">
         <f aca="false">AVERAGE(D35:D37)</f>
         <v>2.18333333333333</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="41" t="n">
         <f aca="false">AVERAGE(E35:E37)</f>
         <v>1.19033333333333</v>
       </c>
-      <c r="J35" s="3" t="n">
+      <c r="J35" s="41" t="n">
         <f aca="false">AVERAGE(F35:F37)</f>
         <v>4.50333333333333</v>
       </c>
@@ -27264,7 +27493,7 @@
       </c>
       <c r="M35" s="3" t="n">
         <f aca="false">AVERAGE(I35,I41,I47,I53,I59)</f>
-        <v>1.8396</v>
+        <v>1.70627333333333</v>
       </c>
       <c r="N35" s="3" t="n">
         <f aca="false">AVERAGE(J35,J41,J47,J53,J59)</f>
@@ -27272,8 +27501,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="34" t="n">
         <v>3.341</v>
       </c>
@@ -27286,10 +27515,26 @@
       <c r="F36" s="34" t="n">
         <v>4.5</v>
       </c>
+      <c r="G36" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C35:C37)</f>
+        <v>0.0699738046223967</v>
+      </c>
+      <c r="H36" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D35:D37)</f>
+        <v>0.0315013227235515</v>
+      </c>
+      <c r="I36" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E35:E37)</f>
+        <v>0.0625806146768577</v>
+      </c>
+      <c r="J36" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F35:F37)</f>
+        <v>0.00577350269189614</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="34" t="n">
         <v>3.454</v>
       </c>
@@ -27302,9 +27547,13 @@
       <c r="F37" s="34" t="n">
         <v>4.51</v>
       </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="40" t="s">
         <v>10</v>
       </c>
@@ -27320,26 +27569,26 @@
       <c r="F38" s="34" t="n">
         <v>4.16</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="41" t="n">
         <f aca="false">AVERAGE(C38:C40)</f>
         <v>4.07433333333333</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H38" s="41" t="n">
         <f aca="false">AVERAGE(D38:D40)</f>
         <v>2.28833333333333</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="41" t="n">
         <f aca="false">AVERAGE(E38:E40)</f>
         <v>1.786</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="J38" s="41" t="n">
         <f aca="false">AVERAGE(F38:F40)</f>
         <v>4.15666666666667</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="34" t="n">
         <v>4.088</v>
       </c>
@@ -27352,10 +27601,26 @@
       <c r="F39" s="34" t="n">
         <v>4.15</v>
       </c>
+      <c r="G39" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C38:C40)</f>
+        <v>0.0308598984660246</v>
+      </c>
+      <c r="H39" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D38:D40)</f>
+        <v>0.0401040313850532</v>
+      </c>
+      <c r="I39" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E38:E40)</f>
+        <v>0.0454312667664022</v>
+      </c>
+      <c r="J39" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F38:F40)</f>
+        <v>0.00577350269189614</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="34" t="n">
         <v>4.096</v>
       </c>
@@ -27368,9 +27633,13 @@
       <c r="F40" s="34" t="n">
         <v>4.16</v>
       </c>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="40" t="s">
         <v>15</v>
       </c>
@@ -27386,26 +27655,26 @@
       <c r="F41" s="34" t="n">
         <v>7.11</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="41" t="n">
         <f aca="false">AVERAGE(C41:C43)</f>
         <v>5.34433333333333</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="41" t="n">
         <f aca="false">AVERAGE(D41:D43)</f>
         <v>2.36633333333333</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="41" t="n">
         <f aca="false">AVERAGE(E41:E43)</f>
         <v>2.978</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="J41" s="41" t="n">
         <f aca="false">AVERAGE(F41:F43)</f>
         <v>7.10333333333333</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="34" t="n">
         <v>5.349</v>
       </c>
@@ -27418,10 +27687,26 @@
       <c r="F42" s="34" t="n">
         <v>7.1</v>
       </c>
+      <c r="G42" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C41:C43)</f>
+        <v>0.0860949088699983</v>
+      </c>
+      <c r="H42" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D41:D43)</f>
+        <v>0.0962617958139849</v>
+      </c>
+      <c r="I42" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E41:E43)</f>
+        <v>0.132106018030974</v>
+      </c>
+      <c r="J42" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F41:F43)</f>
+        <v>0.00577350269189665</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="34" t="n">
         <v>5.428</v>
       </c>
@@ -27434,9 +27719,13 @@
       <c r="F43" s="34" t="n">
         <v>7.1</v>
       </c>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="40" t="s">
         <v>9</v>
       </c>
@@ -27452,26 +27741,26 @@
       <c r="F44" s="34" t="n">
         <v>4.13</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="41" t="n">
         <f aca="false">AVERAGE(C44:C46)</f>
         <v>3.58533333333333</v>
       </c>
-      <c r="H44" s="3" t="n">
+      <c r="H44" s="41" t="n">
         <f aca="false">AVERAGE(D44:D46)</f>
         <v>2.33733333333333</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="41" t="n">
         <f aca="false">AVERAGE(E44:E46)</f>
         <v>1.248</v>
       </c>
-      <c r="J44" s="3" t="n">
+      <c r="J44" s="41" t="n">
         <f aca="false">AVERAGE(F44:F46)</f>
         <v>4.13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="34" t="n">
         <v>3.589</v>
       </c>
@@ -27484,10 +27773,26 @@
       <c r="F45" s="34" t="n">
         <v>4.13</v>
       </c>
+      <c r="G45" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C44:C46)</f>
+        <v>0.0286763549520041</v>
+      </c>
+      <c r="H45" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D44:D46)</f>
+        <v>0.0895786432880813</v>
+      </c>
+      <c r="I45" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E44:E46)</f>
+        <v>0.0650922422412994</v>
+      </c>
+      <c r="J45" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F44:F46)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="34" t="n">
         <v>3.612</v>
       </c>
@@ -27500,9 +27805,13 @@
       <c r="F46" s="34" t="n">
         <v>4.13</v>
       </c>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="40" t="s">
         <v>14</v>
       </c>
@@ -27513,31 +27822,31 @@
         <v>2.288</v>
       </c>
       <c r="E47" s="34" t="n">
-        <v>3.106</v>
+        <v>1.1061</v>
       </c>
       <c r="F47" s="34" t="n">
         <v>4.73</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="41" t="n">
         <f aca="false">AVERAGE(C47:C49)</f>
         <v>3.67966666666667</v>
       </c>
-      <c r="H47" s="3" t="n">
+      <c r="H47" s="41" t="n">
         <f aca="false">AVERAGE(D47:D49)</f>
         <v>2.27833333333333</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="41" t="n">
         <f aca="false">AVERAGE(E47:E49)</f>
-        <v>2.068</v>
-      </c>
-      <c r="J47" s="3" t="n">
+        <v>1.40136666666667</v>
+      </c>
+      <c r="J47" s="41" t="n">
         <f aca="false">AVERAGE(F47:F49)</f>
         <v>4.71666666666667</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="34" t="n">
         <v>3.79</v>
       </c>
@@ -27550,10 +27859,26 @@
       <c r="F48" s="34" t="n">
         <v>4.71</v>
       </c>
+      <c r="G48" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C47:C49)</f>
+        <v>0.249520206262606</v>
+      </c>
+      <c r="H48" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D47:D49)</f>
+        <v>0.0142243921955679</v>
+      </c>
+      <c r="I48" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E47:E49)</f>
+        <v>0.256569295383008</v>
+      </c>
+      <c r="J48" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F47:F49)</f>
+        <v>0.0115470053837928</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="34" t="n">
         <v>3.855</v>
       </c>
@@ -27566,9 +27891,13 @@
       <c r="F49" s="34" t="n">
         <v>4.71</v>
       </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="40" t="s">
         <v>8</v>
       </c>
@@ -27584,26 +27913,26 @@
       <c r="F50" s="34" t="n">
         <v>4.38</v>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="41" t="n">
         <f aca="false">AVERAGE(C50:C52)</f>
         <v>3.29933333333333</v>
       </c>
-      <c r="H50" s="3" t="n">
+      <c r="H50" s="41" t="n">
         <f aca="false">AVERAGE(D50:D52)</f>
         <v>2.292</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="41" t="n">
         <f aca="false">AVERAGE(E50:E52)</f>
         <v>1.00566666666667</v>
       </c>
-      <c r="J50" s="3" t="n">
+      <c r="J50" s="41" t="n">
         <f aca="false">AVERAGE(F50:F52)</f>
         <v>4.38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="34" t="n">
         <v>3.297</v>
       </c>
@@ -27616,10 +27945,26 @@
       <c r="F51" s="34" t="n">
         <v>4.38</v>
       </c>
+      <c r="G51" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C50:C52)</f>
+        <v>0.0205993527406407</v>
+      </c>
+      <c r="H51" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D50:D52)</f>
+        <v>0.113406349028615</v>
+      </c>
+      <c r="I51" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E50:E52)</f>
+        <v>0.114054080739504</v>
+      </c>
+      <c r="J51" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F50:F52)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="34" t="n">
         <v>3.321</v>
       </c>
@@ -27632,9 +27977,13 @@
       <c r="F52" s="34" t="n">
         <v>4.38</v>
       </c>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="40" t="s">
         <v>13</v>
       </c>
@@ -27650,26 +27999,26 @@
       <c r="F53" s="34" t="n">
         <v>4.38</v>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="41" t="n">
         <f aca="false">AVERAGE(C53:C55)</f>
         <v>3.45266666666667</v>
       </c>
-      <c r="H53" s="3" t="n">
+      <c r="H53" s="41" t="n">
         <f aca="false">AVERAGE(D53:D55)</f>
         <v>2.36133333333333</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="41" t="n">
         <f aca="false">AVERAGE(E53:E55)</f>
         <v>1.08233333333333</v>
       </c>
-      <c r="J53" s="3" t="n">
+      <c r="J53" s="41" t="n">
         <f aca="false">AVERAGE(F53:F55)</f>
         <v>4.46</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="34" t="n">
         <v>3.485</v>
       </c>
@@ -27682,10 +28031,26 @@
       <c r="F54" s="34" t="n">
         <v>4.5</v>
       </c>
+      <c r="G54" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C53:C55)</f>
+        <v>0.0595007002759911</v>
+      </c>
+      <c r="H54" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D53:D55)</f>
+        <v>0.144351423038823</v>
+      </c>
+      <c r="I54" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E53:E55)</f>
+        <v>0.19679007427544</v>
+      </c>
+      <c r="J54" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F53:F55)</f>
+        <v>0.0692820323027552</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="34" t="n">
         <v>3.489</v>
       </c>
@@ -27698,9 +28063,13 @@
       <c r="F55" s="34" t="n">
         <v>4.5</v>
       </c>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="40" t="s">
         <v>7</v>
       </c>
@@ -27716,26 +28085,26 @@
       <c r="F56" s="34" t="n">
         <v>5.59</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="41" t="n">
         <f aca="false">AVERAGE(C56:C58)</f>
         <v>4.28566666666667</v>
       </c>
-      <c r="H56" s="3" t="n">
+      <c r="H56" s="41" t="n">
         <f aca="false">AVERAGE(D56:D58)</f>
         <v>2.43166666666667</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="41" t="n">
         <f aca="false">AVERAGE(E56:E58)</f>
         <v>1.854</v>
       </c>
-      <c r="J56" s="3" t="n">
+      <c r="J56" s="41" t="n">
         <f aca="false">AVERAGE(F56:F58)</f>
         <v>5.58333333333333</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="34" t="n">
         <v>4.294</v>
       </c>
@@ -27748,10 +28117,26 @@
       <c r="F57" s="34" t="n">
         <v>5.58</v>
       </c>
+      <c r="G57" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C56:C58)</f>
+        <v>0.0411379792081885</v>
+      </c>
+      <c r="H57" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D56:D58)</f>
+        <v>0.00513160143944675</v>
+      </c>
+      <c r="I57" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E56:E58)</f>
+        <v>0.0408411557133242</v>
+      </c>
+      <c r="J57" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F56:F58)</f>
+        <v>0.00577350269189614</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="34" t="n">
         <v>4.322</v>
       </c>
@@ -27764,9 +28149,13 @@
       <c r="F58" s="34" t="n">
         <v>5.58</v>
       </c>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="40" t="s">
         <v>12</v>
       </c>
@@ -27782,26 +28171,26 @@
       <c r="F59" s="34" t="n">
         <v>5.71</v>
       </c>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="41" t="n">
         <f aca="false">AVERAGE(C59:C61)</f>
         <v>4.38</v>
       </c>
-      <c r="H59" s="3" t="n">
+      <c r="H59" s="41" t="n">
         <f aca="false">AVERAGE(D59:D61)</f>
         <v>2.50066666666667</v>
       </c>
-      <c r="I59" s="3" t="n">
+      <c r="I59" s="41" t="n">
         <f aca="false">AVERAGE(E59:E61)</f>
         <v>1.87933333333333</v>
       </c>
-      <c r="J59" s="3" t="n">
+      <c r="J59" s="41" t="n">
         <f aca="false">AVERAGE(F59:F61)</f>
         <v>5.83333333333333</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="34" t="n">
         <v>4.364</v>
       </c>
@@ -27814,10 +28203,26 @@
       <c r="F60" s="34" t="n">
         <v>5.9</v>
       </c>
+      <c r="G60" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C59:C61)</f>
+        <v>0.0969948452238572</v>
+      </c>
+      <c r="H60" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D59:D61)</f>
+        <v>0.0213619599600161</v>
+      </c>
+      <c r="I60" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E59:E61)</f>
+        <v>0.0812916559883814</v>
+      </c>
+      <c r="J60" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F59:F61)</f>
+        <v>0.106926766215636</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="44"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="34" t="n">
         <v>4.484</v>
       </c>
@@ -27830,6 +28235,10 @@
       <c r="F61" s="34" t="n">
         <v>5.89</v>
       </c>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="39" t="n">
@@ -27850,19 +28259,19 @@
       <c r="F62" s="34" t="n">
         <v>8.75</v>
       </c>
-      <c r="G62" s="3" t="n">
+      <c r="G62" s="41" t="n">
         <f aca="false">AVERAGE(C62:C64)</f>
         <v>6.56466666666667</v>
       </c>
-      <c r="H62" s="3" t="n">
+      <c r="H62" s="41" t="n">
         <f aca="false">AVERAGE(D62:D64)</f>
         <v>4.81233333333333</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="41" t="n">
         <f aca="false">AVERAGE(E62:E64)</f>
         <v>1.75233333333333</v>
       </c>
-      <c r="J62" s="3" t="n">
+      <c r="J62" s="41" t="n">
         <f aca="false">AVERAGE(F62:F64)</f>
         <v>8.75</v>
       </c>
@@ -27884,8 +28293,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="34" t="n">
         <v>6.579</v>
       </c>
@@ -27897,6 +28306,22 @@
       </c>
       <c r="F63" s="34" t="n">
         <v>8.75</v>
+      </c>
+      <c r="G63" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C62:C64)</f>
+        <v>0.0265769323537037</v>
+      </c>
+      <c r="H63" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D62:D64)</f>
+        <v>0.0658584340334124</v>
+      </c>
+      <c r="I63" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E62:E64)</f>
+        <v>0.0399541403778549</v>
+      </c>
+      <c r="J63" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F62:F64)</f>
+        <v>0</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -27904,8 +28329,8 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="34" t="n">
         <v>6.581</v>
       </c>
@@ -27918,13 +28343,17 @@
       <c r="F64" s="34" t="n">
         <v>8.75</v>
       </c>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41" t="n">
+      <c r="A65" s="42" t="n">
         <v>500</v>
       </c>
       <c r="B65" s="40" t="s">
@@ -27942,19 +28371,19 @@
       <c r="F65" s="34" t="n">
         <v>8.96</v>
       </c>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="41" t="n">
         <f aca="false">AVERAGE(C65:C67)</f>
         <v>6.741</v>
       </c>
-      <c r="H65" s="3" t="n">
+      <c r="H65" s="41" t="n">
         <f aca="false">AVERAGE(D65:D67)</f>
         <v>4.68866666666667</v>
       </c>
-      <c r="I65" s="3" t="n">
+      <c r="I65" s="41" t="n">
         <f aca="false">AVERAGE(E65:E67)</f>
         <v>2.05233333333333</v>
       </c>
-      <c r="J65" s="3" t="n">
+      <c r="J65" s="41" t="n">
         <f aca="false">AVERAGE(F65:F67)</f>
         <v>8.95666666666667</v>
       </c>
@@ -27976,8 +28405,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="34" t="n">
         <v>6.701</v>
       </c>
@@ -27990,10 +28419,26 @@
       <c r="F66" s="34" t="n">
         <v>8.96</v>
       </c>
+      <c r="G66" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C65:C67)</f>
+        <v>0.0727736215946412</v>
+      </c>
+      <c r="H66" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D65:D67)</f>
+        <v>0.193314079501037</v>
+      </c>
+      <c r="I66" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E65:E67)</f>
+        <v>0.151665201458124</v>
+      </c>
+      <c r="J66" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F65:F67)</f>
+        <v>0.00577350269189716</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="34" t="n">
         <v>6.825</v>
       </c>
@@ -28006,9 +28451,13 @@
       <c r="F67" s="34" t="n">
         <v>8.95</v>
       </c>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="40" t="s">
         <v>10</v>
       </c>
@@ -28024,26 +28473,26 @@
       <c r="F68" s="34" t="n">
         <v>8.3</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="41" t="n">
         <f aca="false">AVERAGE(C68:C70)</f>
         <v>8.20133333333333</v>
       </c>
-      <c r="H68" s="3" t="n">
+      <c r="H68" s="41" t="n">
         <f aca="false">AVERAGE(D68:D70)</f>
         <v>4.57133333333333</v>
       </c>
-      <c r="I68" s="3" t="n">
+      <c r="I68" s="41" t="n">
         <f aca="false">AVERAGE(E68:E70)</f>
         <v>3.63</v>
       </c>
-      <c r="J68" s="3" t="n">
+      <c r="J68" s="41" t="n">
         <f aca="false">AVERAGE(F68:F70)</f>
         <v>8.29666666666667</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="34" t="n">
         <v>8.214</v>
       </c>
@@ -28056,10 +28505,26 @@
       <c r="F69" s="34" t="n">
         <v>8.3</v>
       </c>
+      <c r="G69" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C68:C70)</f>
+        <v>0.0395516539898568</v>
+      </c>
+      <c r="H69" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D68:D70)</f>
+        <v>0.130986004341431</v>
+      </c>
+      <c r="I69" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E68:E70)</f>
+        <v>0.11652896635601</v>
+      </c>
+      <c r="J69" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F68:F70)</f>
+        <v>0.00577350269189716</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="34" t="n">
         <v>8.233</v>
       </c>
@@ -28072,9 +28537,13 @@
       <c r="F70" s="34" t="n">
         <v>8.29</v>
       </c>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="40" t="s">
         <v>15</v>
       </c>
@@ -28090,26 +28559,26 @@
       <c r="F71" s="34" t="n">
         <v>14.16</v>
       </c>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="41" t="n">
         <f aca="false">AVERAGE(C71:C73)</f>
         <v>10.54</v>
       </c>
-      <c r="H71" s="3" t="n">
+      <c r="H71" s="41" t="n">
         <f aca="false">AVERAGE(D71:D73)</f>
         <v>4.778</v>
       </c>
-      <c r="I71" s="3" t="n">
+      <c r="I71" s="41" t="n">
         <f aca="false">AVERAGE(E71:E73)</f>
         <v>5.762</v>
       </c>
-      <c r="J71" s="3" t="n">
+      <c r="J71" s="41" t="n">
         <f aca="false">AVERAGE(F71:F73)</f>
         <v>14.17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="34" t="n">
         <v>10.566</v>
       </c>
@@ -28122,10 +28591,26 @@
       <c r="F72" s="34" t="n">
         <v>14.18</v>
       </c>
+      <c r="G72" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C71:C73)</f>
+        <v>0.150691738326957</v>
+      </c>
+      <c r="H72" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D71:D73)</f>
+        <v>0.140914867916767</v>
+      </c>
+      <c r="I72" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E71:E73)</f>
+        <v>0.14707481089568</v>
+      </c>
+      <c r="J72" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F71:F73)</f>
+        <v>0.00999999999999979</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="34" t="n">
         <v>10.676</v>
       </c>
@@ -28138,9 +28623,13 @@
       <c r="F73" s="34" t="n">
         <v>14.17</v>
       </c>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="40" t="s">
         <v>9</v>
       </c>
@@ -28156,26 +28645,26 @@
       <c r="F74" s="34" t="n">
         <v>8.24</v>
       </c>
-      <c r="G74" s="3" t="n">
+      <c r="G74" s="41" t="n">
         <f aca="false">AVERAGE(C74:C76)</f>
         <v>7.65666666666667</v>
       </c>
-      <c r="H74" s="3" t="n">
+      <c r="H74" s="41" t="n">
         <f aca="false">AVERAGE(D74:D76)</f>
         <v>4.809</v>
       </c>
-      <c r="I74" s="3" t="n">
+      <c r="I74" s="41" t="n">
         <f aca="false">AVERAGE(E74:E76)</f>
         <v>2.84766666666667</v>
       </c>
-      <c r="J74" s="3" t="n">
+      <c r="J74" s="41" t="n">
         <f aca="false">AVERAGE(F74:F76)</f>
         <v>8.24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="34" t="n">
         <v>7.648</v>
       </c>
@@ -28188,10 +28677,26 @@
       <c r="F75" s="34" t="n">
         <v>8.24</v>
       </c>
+      <c r="G75" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C74:C76)</f>
+        <v>0.460061227809227</v>
+      </c>
+      <c r="H75" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D74:D76)</f>
+        <v>0.162729837460743</v>
+      </c>
+      <c r="I75" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E74:E76)</f>
+        <v>0.310717449354447</v>
+      </c>
+      <c r="J75" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F74:F76)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="34" t="n">
         <v>8.121</v>
       </c>
@@ -28204,9 +28709,13 @@
       <c r="F76" s="34" t="n">
         <v>8.24</v>
       </c>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="40" t="s">
         <v>14</v>
       </c>
@@ -28222,26 +28731,26 @@
       <c r="F77" s="34" t="n">
         <v>9.38</v>
       </c>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="41" t="n">
         <f aca="false">AVERAGE(C77:C79)</f>
         <v>7.57933333333333</v>
       </c>
-      <c r="H77" s="3" t="n">
+      <c r="H77" s="41" t="n">
         <f aca="false">AVERAGE(D77:D79)</f>
         <v>4.80766666666667</v>
       </c>
-      <c r="I77" s="3" t="n">
+      <c r="I77" s="41" t="n">
         <f aca="false">AVERAGE(E77:E79)</f>
         <v>2.77166666666667</v>
       </c>
-      <c r="J77" s="3" t="n">
+      <c r="J77" s="41" t="n">
         <f aca="false">AVERAGE(F77:F79)</f>
         <v>9.38333333333334</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="34" t="n">
         <v>7.547</v>
       </c>
@@ -28254,10 +28763,26 @@
       <c r="F78" s="34" t="n">
         <v>9.38</v>
       </c>
+      <c r="G78" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C77:C79)</f>
+        <v>0.0693998078767753</v>
+      </c>
+      <c r="H78" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D77:D79)</f>
+        <v>0.217541566909254</v>
+      </c>
+      <c r="I78" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E77:E79)</f>
+        <v>0.25582285537718</v>
+      </c>
+      <c r="J78" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F77:F79)</f>
+        <v>0.00577350269189614</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="41"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="34" t="n">
         <v>7.659</v>
       </c>
@@ -28270,9 +28795,13 @@
       <c r="F79" s="34" t="n">
         <v>9.39</v>
       </c>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="40" t="s">
         <v>8</v>
       </c>
@@ -28288,26 +28817,26 @@
       <c r="F80" s="34" t="n">
         <v>8.75</v>
       </c>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="41" t="n">
         <f aca="false">AVERAGE(C80:C82)</f>
         <v>6.67733333333333</v>
       </c>
-      <c r="H80" s="3" t="n">
+      <c r="H80" s="41" t="n">
         <f aca="false">AVERAGE(D80:D82)</f>
         <v>4.69366666666667</v>
       </c>
-      <c r="I80" s="3" t="n">
+      <c r="I80" s="41" t="n">
         <f aca="false">AVERAGE(E80:E82)</f>
         <v>1.98366666666667</v>
       </c>
-      <c r="J80" s="3" t="n">
+      <c r="J80" s="41" t="n">
         <f aca="false">AVERAGE(F80:F82)</f>
         <v>8.75</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="41"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="34" t="n">
         <v>6.67</v>
       </c>
@@ -28320,10 +28849,26 @@
       <c r="F81" s="34" t="n">
         <v>8.75</v>
       </c>
+      <c r="G81" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C80:C82)</f>
+        <v>0.127158693502777</v>
+      </c>
+      <c r="H81" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D80:D82)</f>
+        <v>0.103664523021781</v>
+      </c>
+      <c r="I81" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E80:E82)</f>
+        <v>0.225078504822947</v>
+      </c>
+      <c r="J81" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F80:F82)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="41"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="34" t="n">
         <v>6.808</v>
       </c>
@@ -28336,9 +28881,13 @@
       <c r="F82" s="34" t="n">
         <v>8.75</v>
       </c>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="41"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="40" t="s">
         <v>13</v>
       </c>
@@ -28354,26 +28903,26 @@
       <c r="F83" s="34" t="n">
         <v>8.95</v>
       </c>
-      <c r="G83" s="3" t="n">
+      <c r="G83" s="41" t="n">
         <f aca="false">AVERAGE(C83:C85)</f>
         <v>6.782</v>
       </c>
-      <c r="H83" s="3" t="n">
+      <c r="H83" s="41" t="n">
         <f aca="false">AVERAGE(D83:D85)</f>
         <v>4.65033333333333</v>
       </c>
-      <c r="I83" s="3" t="n">
+      <c r="I83" s="41" t="n">
         <f aca="false">AVERAGE(E83:E85)</f>
         <v>2.13166666666667</v>
       </c>
-      <c r="J83" s="3" t="n">
+      <c r="J83" s="41" t="n">
         <f aca="false">AVERAGE(F83:F85)</f>
         <v>8.95666666666667</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="34" t="n">
         <v>6.708</v>
       </c>
@@ -28386,10 +28935,26 @@
       <c r="F84" s="34" t="n">
         <v>8.97</v>
       </c>
+      <c r="G84" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C83:C85)</f>
+        <v>0.170502199399304</v>
+      </c>
+      <c r="H84" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D83:D85)</f>
+        <v>0.144880410454048</v>
+      </c>
+      <c r="I84" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E83:E85)</f>
+        <v>0.19104013539917</v>
+      </c>
+      <c r="J84" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F83:F85)</f>
+        <v>0.0115470053837933</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="34" t="n">
         <v>6.977</v>
       </c>
@@ -28402,9 +28967,13 @@
       <c r="F85" s="34" t="n">
         <v>8.95</v>
       </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="41"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="40" t="s">
         <v>7</v>
       </c>
@@ -28420,26 +28989,26 @@
       <c r="F86" s="34" t="n">
         <v>11.14</v>
       </c>
-      <c r="G86" s="3" t="n">
+      <c r="G86" s="41" t="n">
         <f aca="false">AVERAGE(C86:C88)</f>
         <v>8.41566666666667</v>
       </c>
-      <c r="H86" s="3" t="n">
+      <c r="H86" s="41" t="n">
         <f aca="false">AVERAGE(D86:D88)</f>
         <v>4.67533333333333</v>
       </c>
-      <c r="I86" s="3" t="n">
+      <c r="I86" s="41" t="n">
         <f aca="false">AVERAGE(E86:E88)</f>
         <v>3.74033333333333</v>
       </c>
-      <c r="J86" s="3" t="n">
+      <c r="J86" s="41" t="n">
         <f aca="false">AVERAGE(F86:F88)</f>
         <v>11.14</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="41"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="34" t="n">
         <v>8.457</v>
       </c>
@@ -28452,10 +29021,26 @@
       <c r="F87" s="34" t="n">
         <v>11.14</v>
       </c>
+      <c r="G87" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C86:C88)</f>
+        <v>0.0922297854997687</v>
+      </c>
+      <c r="H87" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D86:D88)</f>
+        <v>0.0617845719685208</v>
+      </c>
+      <c r="I87" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E86:E88)</f>
+        <v>0.0515396287659636</v>
+      </c>
+      <c r="J87" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F86:F88)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41"/>
-      <c r="B88" s="43"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="34" t="n">
         <v>8.48</v>
       </c>
@@ -28468,9 +29053,13 @@
       <c r="F88" s="34" t="n">
         <v>11.14</v>
       </c>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="40" t="s">
         <v>12</v>
       </c>
@@ -28486,26 +29075,26 @@
       <c r="F89" s="34" t="n">
         <v>11.37</v>
       </c>
-      <c r="G89" s="3" t="n">
+      <c r="G89" s="41" t="n">
         <f aca="false">AVERAGE(C89:C91)</f>
         <v>8.54233333333333</v>
       </c>
-      <c r="H89" s="3" t="n">
+      <c r="H89" s="41" t="n">
         <f aca="false">AVERAGE(D89:D91)</f>
         <v>4.77533333333333</v>
       </c>
-      <c r="I89" s="3" t="n">
+      <c r="I89" s="41" t="n">
         <f aca="false">AVERAGE(E89:E91)</f>
         <v>3.767</v>
       </c>
-      <c r="J89" s="3" t="n">
+      <c r="J89" s="41" t="n">
         <f aca="false">AVERAGE(F89:F91)</f>
         <v>11.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="34" t="n">
         <v>8.461</v>
       </c>
@@ -28518,10 +29107,26 @@
       <c r="F90" s="34" t="n">
         <v>11.76</v>
       </c>
+      <c r="G90" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C89:C91)</f>
+        <v>0.267442205594654</v>
+      </c>
+      <c r="H90" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D89:D91)</f>
+        <v>0.200023331972381</v>
+      </c>
+      <c r="I90" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E89:E91)</f>
+        <v>0.077485482511242</v>
+      </c>
+      <c r="J90" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F89:F91)</f>
+        <v>0.225166604983954</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="44"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="34" t="n">
         <v>8.841</v>
       </c>
@@ -28534,6 +29139,10 @@
       <c r="F91" s="34" t="n">
         <v>11.37</v>
       </c>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39" t="n">
@@ -28554,19 +29163,19 @@
       <c r="F92" s="34" t="n">
         <v>17.49</v>
       </c>
-      <c r="G92" s="3" t="n">
+      <c r="G92" s="41" t="n">
         <f aca="false">AVERAGE(C92:C94)</f>
         <v>13.448</v>
       </c>
-      <c r="H92" s="3" t="n">
+      <c r="H92" s="41" t="n">
         <f aca="false">AVERAGE(D92:D94)</f>
         <v>9.98133333333333</v>
       </c>
-      <c r="I92" s="3" t="n">
+      <c r="I92" s="41" t="n">
         <f aca="false">AVERAGE(E92:E94)</f>
         <v>3.46666666666667</v>
       </c>
-      <c r="J92" s="3" t="n">
+      <c r="J92" s="41" t="n">
         <f aca="false">AVERAGE(F92:F94)</f>
         <v>17.49</v>
       </c>
@@ -28588,8 +29197,8 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="41"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="34" t="n">
         <v>13.425</v>
       </c>
@@ -28601,6 +29210,22 @@
       </c>
       <c r="F93" s="34" t="n">
         <v>17.49</v>
+      </c>
+      <c r="G93" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C92:C94)</f>
+        <v>0.450940129063715</v>
+      </c>
+      <c r="H93" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D92:D94)</f>
+        <v>0.508401744030578</v>
+      </c>
+      <c r="I93" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E92:E94)</f>
+        <v>0.0575007246331152</v>
+      </c>
+      <c r="J93" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F92:F94)</f>
+        <v>0</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -28608,8 +29233,8 @@
       <c r="N93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="41"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="34" t="n">
         <v>13.91</v>
       </c>
@@ -28622,13 +29247,17 @@
       <c r="F94" s="34" t="n">
         <v>17.49</v>
       </c>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="41" t="n">
+      <c r="A95" s="42" t="n">
         <v>1000</v>
       </c>
       <c r="B95" s="40" t="s">
@@ -28646,19 +29275,19 @@
       <c r="F95" s="34" t="n">
         <v>17.9</v>
       </c>
-      <c r="G95" s="3" t="n">
+      <c r="G95" s="41" t="n">
         <f aca="false">AVERAGE(C95:C97)</f>
         <v>14.444</v>
       </c>
-      <c r="H95" s="3" t="n">
+      <c r="H95" s="41" t="n">
         <f aca="false">AVERAGE(D95:D97)</f>
         <v>10.175</v>
       </c>
-      <c r="I95" s="3" t="n">
+      <c r="I95" s="41" t="n">
         <f aca="false">AVERAGE(E95:E97)</f>
         <v>4.269</v>
       </c>
-      <c r="J95" s="3" t="n">
+      <c r="J95" s="41" t="n">
         <f aca="false">AVERAGE(F95:F97)</f>
         <v>17.9133333333333</v>
       </c>
@@ -28680,8 +29309,8 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="41"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="34" t="n">
         <v>14.381</v>
       </c>
@@ -28694,10 +29323,26 @@
       <c r="F96" s="34" t="n">
         <v>17.9</v>
       </c>
+      <c r="G96" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C95:C97)</f>
+        <v>0.195276726723898</v>
+      </c>
+      <c r="H96" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D95:D97)</f>
+        <v>0.286228929355508</v>
+      </c>
+      <c r="I96" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E95:E97)</f>
+        <v>0.246493407619758</v>
+      </c>
+      <c r="J96" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F95:F97)</f>
+        <v>0.0230940107675866</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="41"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="34" t="n">
         <v>14.663</v>
       </c>
@@ -28710,9 +29355,13 @@
       <c r="F97" s="34" t="n">
         <v>17.94</v>
       </c>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="41"/>
+      <c r="A98" s="42"/>
       <c r="B98" s="40" t="s">
         <v>10</v>
       </c>
@@ -28728,26 +29377,26 @@
       <c r="F98" s="34" t="n">
         <v>16.58</v>
       </c>
-      <c r="G98" s="3" t="n">
+      <c r="G98" s="41" t="n">
         <f aca="false">AVERAGE(C98:C100)</f>
         <v>17.0696666666667</v>
       </c>
-      <c r="H98" s="3" t="n">
+      <c r="H98" s="41" t="n">
         <f aca="false">AVERAGE(D98:D100)</f>
         <v>9.916</v>
       </c>
-      <c r="I98" s="3" t="n">
+      <c r="I98" s="41" t="n">
         <f aca="false">AVERAGE(E98:E100)</f>
         <v>7.15366666666667</v>
       </c>
-      <c r="J98" s="3" t="n">
+      <c r="J98" s="41" t="n">
         <f aca="false">AVERAGE(F98:F100)</f>
         <v>16.58</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="41"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="34" t="n">
         <v>16.985</v>
       </c>
@@ -28760,10 +29409,26 @@
       <c r="F99" s="34" t="n">
         <v>16.58</v>
       </c>
+      <c r="G99" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C98:C100)</f>
+        <v>0.37033138313318</v>
+      </c>
+      <c r="H99" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D98:D100)</f>
+        <v>0.359412019832392</v>
+      </c>
+      <c r="I99" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E98:E100)</f>
+        <v>0.0109696551146032</v>
+      </c>
+      <c r="J99" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F98:F100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="41"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="34" t="n">
         <v>17.475</v>
       </c>
@@ -28776,9 +29441,13 @@
       <c r="F100" s="34" t="n">
         <v>16.58</v>
       </c>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="41"/>
+      <c r="A101" s="42"/>
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -28794,26 +29463,26 @@
       <c r="F101" s="34" t="n">
         <v>28.36</v>
       </c>
-      <c r="G101" s="3" t="n">
+      <c r="G101" s="41" t="n">
         <f aca="false">AVERAGE(C101:C103)</f>
         <v>21.5523333333333</v>
       </c>
-      <c r="H101" s="3" t="n">
+      <c r="H101" s="41" t="n">
         <f aca="false">AVERAGE(D101:D103)</f>
         <v>10.006</v>
       </c>
-      <c r="I101" s="3" t="n">
+      <c r="I101" s="41" t="n">
         <f aca="false">AVERAGE(E101:E103)</f>
         <v>11.5463333333333</v>
       </c>
-      <c r="J101" s="3" t="n">
+      <c r="J101" s="41" t="n">
         <f aca="false">AVERAGE(F101:F103)</f>
         <v>28.34</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="41"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="34" t="n">
         <v>21.374</v>
       </c>
@@ -28826,10 +29495,26 @@
       <c r="F102" s="34" t="n">
         <v>28.35</v>
       </c>
+      <c r="G102" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C101:C103)</f>
+        <v>0.312352898711271</v>
+      </c>
+      <c r="H102" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D101:D103)</f>
+        <v>0.0911482309208466</v>
+      </c>
+      <c r="I102" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E101:E103)</f>
+        <v>0.222854960306774</v>
+      </c>
+      <c r="J102" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F101:F103)</f>
+        <v>0.0264575131106467</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="41"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="34" t="n">
         <v>21.913</v>
       </c>
@@ -28842,9 +29527,13 @@
       <c r="F103" s="34" t="n">
         <v>28.31</v>
       </c>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="41"/>
+      <c r="A104" s="42"/>
       <c r="B104" s="40" t="s">
         <v>9</v>
       </c>
@@ -28860,26 +29549,26 @@
       <c r="F104" s="34" t="n">
         <v>16.49</v>
       </c>
-      <c r="G104" s="3" t="n">
+      <c r="G104" s="41" t="n">
         <f aca="false">AVERAGE(C104:C106)</f>
         <v>14.8063333333333</v>
       </c>
-      <c r="H104" s="3" t="n">
+      <c r="H104" s="41" t="n">
         <f aca="false">AVERAGE(D104:D106)</f>
         <v>10.1883333333333</v>
       </c>
-      <c r="I104" s="3" t="n">
+      <c r="I104" s="41" t="n">
         <f aca="false">AVERAGE(E104:E106)</f>
         <v>4.618</v>
       </c>
-      <c r="J104" s="3" t="n">
+      <c r="J104" s="41" t="n">
         <f aca="false">AVERAGE(F104:F106)</f>
         <v>16.4766666666667</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="41"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="34" t="n">
         <v>14.905</v>
       </c>
@@ -28892,10 +29581,26 @@
       <c r="F105" s="34" t="n">
         <v>16.45</v>
       </c>
+      <c r="G105" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C104:C106)</f>
+        <v>0.337012363769245</v>
+      </c>
+      <c r="H105" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D104:D106)</f>
+        <v>0.377285479886695</v>
+      </c>
+      <c r="I105" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E104:E106)</f>
+        <v>0.131761147535987</v>
+      </c>
+      <c r="J105" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F104:F106)</f>
+        <v>0.0230940107675845</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="41"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="34" t="n">
         <v>15.083</v>
       </c>
@@ -28908,9 +29613,13 @@
       <c r="F106" s="34" t="n">
         <v>16.49</v>
       </c>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="41"/>
+      <c r="A107" s="42"/>
       <c r="B107" s="40" t="s">
         <v>14</v>
       </c>
@@ -28926,26 +29635,26 @@
       <c r="F107" s="34" t="n">
         <v>18.72</v>
       </c>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="41" t="n">
         <f aca="false">AVERAGE(C107:C109)</f>
         <v>16.2783333333333</v>
       </c>
-      <c r="H107" s="3" t="n">
+      <c r="H107" s="41" t="n">
         <f aca="false">AVERAGE(D107:D109)</f>
         <v>10.2026666666667</v>
       </c>
-      <c r="I107" s="3" t="n">
+      <c r="I107" s="41" t="n">
         <f aca="false">AVERAGE(E107:E109)</f>
         <v>6.07566666666667</v>
       </c>
-      <c r="J107" s="3" t="n">
+      <c r="J107" s="41" t="n">
         <f aca="false">AVERAGE(F107:F109)</f>
         <v>18.7433333333333</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="34" t="n">
         <v>16.325</v>
       </c>
@@ -28958,10 +29667,26 @@
       <c r="F108" s="34" t="n">
         <v>18.76</v>
       </c>
+      <c r="G108" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C107:C109)</f>
+        <v>0.344379635479994</v>
+      </c>
+      <c r="H108" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D107:D109)</f>
+        <v>0.160225882220486</v>
+      </c>
+      <c r="I108" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E107:E109)</f>
+        <v>0.477187943407347</v>
+      </c>
+      <c r="J108" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F107:F109)</f>
+        <v>0.0208166599946626</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="41"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="34" t="n">
         <v>16.597</v>
       </c>
@@ -28974,9 +29699,13 @@
       <c r="F109" s="34" t="n">
         <v>18.75</v>
       </c>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="40" t="s">
         <v>8</v>
       </c>
@@ -28992,26 +29721,26 @@
       <c r="F110" s="34" t="n">
         <v>17.45</v>
       </c>
-      <c r="G110" s="3" t="n">
+      <c r="G110" s="41" t="n">
         <f aca="false">AVERAGE(C110:C112)</f>
         <v>13.7893333333333</v>
       </c>
-      <c r="H110" s="3" t="n">
+      <c r="H110" s="41" t="n">
         <f aca="false">AVERAGE(D110:D112)</f>
         <v>9.833</v>
       </c>
-      <c r="I110" s="3" t="n">
+      <c r="I110" s="41" t="n">
         <f aca="false">AVERAGE(E110:E112)</f>
         <v>3.95633333333333</v>
       </c>
-      <c r="J110" s="3" t="n">
+      <c r="J110" s="41" t="n">
         <f aca="false">AVERAGE(F110:F112)</f>
         <v>17.4633333333333</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="41"/>
-      <c r="B111" s="42"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="34" t="n">
         <v>13.539</v>
       </c>
@@ -29024,10 +29753,26 @@
       <c r="F111" s="34" t="n">
         <v>17.45</v>
       </c>
+      <c r="G111" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C110:C112)</f>
+        <v>0.440536415445231</v>
+      </c>
+      <c r="H111" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D110:D112)</f>
+        <v>0.204931695937939</v>
+      </c>
+      <c r="I111" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E110:E112)</f>
+        <v>0.368709009021116</v>
+      </c>
+      <c r="J111" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F110:F112)</f>
+        <v>0.0230940107675845</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="41"/>
-      <c r="B112" s="43"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="34" t="n">
         <v>14.298</v>
       </c>
@@ -29040,9 +29785,13 @@
       <c r="F112" s="34" t="n">
         <v>17.49</v>
       </c>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="41"/>
+      <c r="A113" s="42"/>
       <c r="B113" s="40" t="s">
         <v>13</v>
       </c>
@@ -29058,26 +29807,26 @@
       <c r="F113" s="34" t="n">
         <v>17.91</v>
       </c>
-      <c r="G113" s="3" t="n">
+      <c r="G113" s="41" t="n">
         <f aca="false">AVERAGE(C113:C115)</f>
         <v>14.3356666666667</v>
       </c>
-      <c r="H113" s="3" t="n">
+      <c r="H113" s="41" t="n">
         <f aca="false">AVERAGE(D113:D115)</f>
         <v>10.119</v>
       </c>
-      <c r="I113" s="3" t="n">
+      <c r="I113" s="41" t="n">
         <f aca="false">AVERAGE(E113:E115)</f>
         <v>4.21666666666667</v>
       </c>
-      <c r="J113" s="3" t="n">
+      <c r="J113" s="41" t="n">
         <f aca="false">AVERAGE(F113:F115)</f>
         <v>17.9066666666667</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="41"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="34" t="n">
         <v>14.296</v>
       </c>
@@ -29090,10 +29839,26 @@
       <c r="F114" s="34" t="n">
         <v>17.91</v>
       </c>
+      <c r="G114" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C113:C115)</f>
+        <v>0.264738235495618</v>
+      </c>
+      <c r="H114" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D113:D115)</f>
+        <v>0.318678521397348</v>
+      </c>
+      <c r="I114" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E113:E115)</f>
+        <v>0.152775434325461</v>
+      </c>
+      <c r="J114" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F113:F115)</f>
+        <v>0.00577350269189716</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="41"/>
-      <c r="B115" s="43"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="34" t="n">
         <v>14.618</v>
       </c>
@@ -29106,9 +29871,13 @@
       <c r="F115" s="34" t="n">
         <v>17.9</v>
       </c>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="41"/>
+      <c r="A116" s="42"/>
       <c r="B116" s="40" t="s">
         <v>7</v>
       </c>
@@ -29124,26 +29893,26 @@
       <c r="F116" s="34" t="n">
         <v>22.26</v>
       </c>
-      <c r="G116" s="3" t="n">
+      <c r="G116" s="41" t="n">
         <f aca="false">AVERAGE(C116:C118)</f>
         <v>16.884</v>
       </c>
-      <c r="H116" s="3" t="n">
+      <c r="H116" s="41" t="n">
         <f aca="false">AVERAGE(D116:D118)</f>
         <v>9.794</v>
       </c>
-      <c r="I116" s="3" t="n">
+      <c r="I116" s="41" t="n">
         <f aca="false">AVERAGE(E116:E118)</f>
         <v>7.09</v>
       </c>
-      <c r="J116" s="3" t="n">
+      <c r="J116" s="41" t="n">
         <f aca="false">AVERAGE(F116:F118)</f>
         <v>22.2766666666667</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="41"/>
-      <c r="B117" s="42"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="34" t="n">
         <v>16.902</v>
       </c>
@@ -29156,10 +29925,26 @@
       <c r="F117" s="34" t="n">
         <v>22.26</v>
       </c>
+      <c r="G117" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C116:C118)</f>
+        <v>0.314386704553485</v>
+      </c>
+      <c r="H117" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D116:D118)</f>
+        <v>0.408273192850082</v>
+      </c>
+      <c r="I117" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E116:E118)</f>
+        <v>0.122020490082609</v>
+      </c>
+      <c r="J117" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F116:F118)</f>
+        <v>0.0288675134594796</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="41"/>
-      <c r="B118" s="43"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="34" t="n">
         <v>17.189</v>
       </c>
@@ -29172,9 +29957,13 @@
       <c r="F118" s="34" t="n">
         <v>22.31</v>
       </c>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="41"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="40" t="s">
         <v>12</v>
       </c>
@@ -29190,26 +29979,26 @@
       <c r="F119" s="34" t="n">
         <v>22.72</v>
       </c>
-      <c r="G119" s="3" t="n">
+      <c r="G119" s="41" t="n">
         <f aca="false">AVERAGE(C119:C121)</f>
         <v>18.0526666666667</v>
       </c>
-      <c r="H119" s="3" t="n">
+      <c r="H119" s="41" t="n">
         <f aca="false">AVERAGE(D119:D121)</f>
         <v>10.6296666666667</v>
       </c>
-      <c r="I119" s="3" t="n">
+      <c r="I119" s="41" t="n">
         <f aca="false">AVERAGE(E119:E121)</f>
         <v>7.423</v>
       </c>
-      <c r="J119" s="3" t="n">
+      <c r="J119" s="41" t="n">
         <f aca="false">AVERAGE(F119:F121)</f>
         <v>22.9766666666667</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="41"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="34" t="n">
         <v>18.122</v>
       </c>
@@ -29222,10 +30011,26 @@
       <c r="F120" s="34" t="n">
         <v>23.49</v>
       </c>
+      <c r="G120" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C119:C121)</f>
+        <v>0.199261971618604</v>
+      </c>
+      <c r="H120" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D119:D121)</f>
+        <v>0.161221379889063</v>
+      </c>
+      <c r="I120" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E119:E121)</f>
+        <v>0.121445461010283</v>
+      </c>
+      <c r="J120" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F119:F121)</f>
+        <v>0.444559707276012</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="44"/>
-      <c r="B121" s="43"/>
+      <c r="A121" s="46"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="34" t="n">
         <v>18.208</v>
       </c>
@@ -29238,6 +30043,10 @@
       <c r="F121" s="34" t="n">
         <v>22.72</v>
       </c>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="39" t="n">
@@ -29258,19 +30067,19 @@
       <c r="F122" s="34" t="n">
         <v>35</v>
       </c>
-      <c r="G122" s="3" t="n">
+      <c r="G122" s="41" t="n">
         <f aca="false">AVERAGE(C122:C124)</f>
         <v>29.641</v>
       </c>
-      <c r="H122" s="3" t="n">
+      <c r="H122" s="41" t="n">
         <f aca="false">AVERAGE(D122:D124)</f>
         <v>21.842</v>
       </c>
-      <c r="I122" s="3" t="n">
+      <c r="I122" s="41" t="n">
         <f aca="false">AVERAGE(E122:E124)</f>
         <v>7.799</v>
       </c>
-      <c r="J122" s="3" t="n">
+      <c r="J122" s="41" t="n">
         <f aca="false">AVERAGE(F122:F124)</f>
         <v>34.97</v>
       </c>
@@ -29292,8 +30101,8 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="41"/>
-      <c r="B123" s="42"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="34" t="n">
         <v>30</v>
       </c>
@@ -29305,6 +30114,22 @@
       </c>
       <c r="F123" s="34" t="n">
         <v>35</v>
+      </c>
+      <c r="G123" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C122:C124)</f>
+        <v>0.727301175579966</v>
+      </c>
+      <c r="H123" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D122:D124)</f>
+        <v>0.634139574541755</v>
+      </c>
+      <c r="I123" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E122:E124)</f>
+        <v>0.583845870071889</v>
+      </c>
+      <c r="J123" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F122:F124)</f>
+        <v>0.0519615242270683</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -29312,8 +30137,8 @@
       <c r="N123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="41"/>
-      <c r="B124" s="43"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="34" t="n">
         <v>30.119</v>
       </c>
@@ -29326,13 +30151,17 @@
       <c r="F124" s="34" t="n">
         <v>34.91</v>
       </c>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="44"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="41" t="n">
+      <c r="A125" s="42" t="n">
         <v>2000</v>
       </c>
       <c r="B125" s="40" t="s">
@@ -29350,19 +30179,19 @@
       <c r="F125" s="34" t="n">
         <v>35.95</v>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" s="41" t="n">
         <f aca="false">AVERAGE(C125:C127)</f>
         <v>30.9036666666667</v>
       </c>
-      <c r="H125" s="3" t="n">
+      <c r="H125" s="41" t="n">
         <f aca="false">AVERAGE(D125:D127)</f>
         <v>22.4033333333333</v>
       </c>
-      <c r="I125" s="3" t="n">
+      <c r="I125" s="41" t="n">
         <f aca="false">AVERAGE(E125:E127)</f>
         <v>8.60033333333333</v>
       </c>
-      <c r="J125" s="3" t="n">
+      <c r="J125" s="41" t="n">
         <f aca="false">AVERAGE(F125:F127)</f>
         <v>35.92</v>
       </c>
@@ -29384,8 +30213,8 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="41"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="34" t="n">
         <v>31.229</v>
       </c>
@@ -29398,10 +30227,26 @@
       <c r="F126" s="34" t="n">
         <v>35.95</v>
       </c>
+      <c r="G126" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C125:C127)</f>
+        <v>0.625989084036882</v>
+      </c>
+      <c r="H126" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D125:D127)</f>
+        <v>0.409147080318721</v>
+      </c>
+      <c r="I126" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E125:E127)</f>
+        <v>0.184174735871491</v>
+      </c>
+      <c r="J126" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F125:F127)</f>
+        <v>0.0519615242270683</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="41"/>
-      <c r="B127" s="43"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="45"/>
       <c r="C127" s="34" t="n">
         <v>31.3</v>
       </c>
@@ -29414,9 +30259,13 @@
       <c r="F127" s="34" t="n">
         <v>35.86</v>
       </c>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="41"/>
+      <c r="A128" s="42"/>
       <c r="B128" s="40" t="s">
         <v>10</v>
       </c>
@@ -29432,26 +30281,26 @@
       <c r="F128" s="34" t="n">
         <v>33.19</v>
       </c>
-      <c r="G128" s="3" t="n">
+      <c r="G128" s="41" t="n">
         <f aca="false">AVERAGE(C128:C130)</f>
         <v>35.9403333333333</v>
       </c>
-      <c r="H128" s="3" t="n">
+      <c r="H128" s="41" t="n">
         <f aca="false">AVERAGE(D128:D130)</f>
         <v>21.311</v>
       </c>
-      <c r="I128" s="3" t="n">
+      <c r="I128" s="41" t="n">
         <f aca="false">AVERAGE(E128:E130)</f>
         <v>14.6323333333333</v>
       </c>
-      <c r="J128" s="3" t="n">
+      <c r="J128" s="41" t="n">
         <f aca="false">AVERAGE(F128:F130)</f>
         <v>33.19</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="41"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="34" t="n">
         <v>35.715</v>
       </c>
@@ -29464,10 +30313,26 @@
       <c r="F129" s="34" t="n">
         <v>33.19</v>
       </c>
+      <c r="G129" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C128:C130)</f>
+        <v>0.528358148733727</v>
+      </c>
+      <c r="H129" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D128:D130)</f>
+        <v>0.361896394013536</v>
+      </c>
+      <c r="I129" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E128:E130)</f>
+        <v>0.396704339947691</v>
+      </c>
+      <c r="J129" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F128:F130)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="41"/>
-      <c r="B130" s="43"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="34" t="n">
         <v>36.544</v>
       </c>
@@ -29480,9 +30345,13 @@
       <c r="F130" s="34" t="n">
         <v>33.19</v>
       </c>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="44"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="41"/>
+      <c r="A131" s="42"/>
       <c r="B131" s="40" t="s">
         <v>15</v>
       </c>
@@ -29498,26 +30367,26 @@
       <c r="F131" s="34" t="n">
         <v>56.68</v>
       </c>
-      <c r="G131" s="3" t="n">
+      <c r="G131" s="41" t="n">
         <f aca="false">AVERAGE(C131:C133)</f>
         <v>46.03</v>
       </c>
-      <c r="H131" s="3" t="n">
+      <c r="H131" s="41" t="n">
         <f aca="false">AVERAGE(D131:D133)</f>
         <v>22.9543333333333</v>
       </c>
-      <c r="I131" s="3" t="n">
+      <c r="I131" s="41" t="n">
         <f aca="false">AVERAGE(E131:E133)</f>
         <v>23.0756666666667</v>
       </c>
-      <c r="J131" s="3" t="n">
+      <c r="J131" s="41" t="n">
         <f aca="false">AVERAGE(F131:F133)</f>
         <v>56.6866666666667</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="41"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="34" t="n">
         <v>45.678</v>
       </c>
@@ -29530,10 +30399,26 @@
       <c r="F132" s="34" t="n">
         <v>56.69</v>
       </c>
+      <c r="G132" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C131:C133)</f>
+        <v>1.01581937370775</v>
+      </c>
+      <c r="H132" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D131:D133)</f>
+        <v>0.379979385405753</v>
+      </c>
+      <c r="I132" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E131:E133)</f>
+        <v>0.637299249437291</v>
+      </c>
+      <c r="J132" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F131:F133)</f>
+        <v>0.00577350269189511</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="41"/>
-      <c r="B133" s="43"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="34" t="n">
         <v>47.175</v>
       </c>
@@ -29546,9 +30431,13 @@
       <c r="F133" s="34" t="n">
         <v>56.69</v>
       </c>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="41"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="40" t="s">
         <v>9</v>
       </c>
@@ -29564,26 +30453,26 @@
       <c r="F134" s="34" t="n">
         <v>32.92</v>
       </c>
-      <c r="G134" s="3" t="n">
+      <c r="G134" s="41" t="n">
         <f aca="false">AVERAGE(C134:C136)</f>
         <v>32.2466666666667</v>
       </c>
-      <c r="H134" s="3" t="n">
+      <c r="H134" s="41" t="n">
         <f aca="false">AVERAGE(D134:D136)</f>
         <v>21.9866666666667</v>
       </c>
-      <c r="I134" s="3" t="n">
+      <c r="I134" s="41" t="n">
         <f aca="false">AVERAGE(E134:E136)</f>
         <v>10.26</v>
       </c>
-      <c r="J134" s="3" t="n">
+      <c r="J134" s="41" t="n">
         <f aca="false">AVERAGE(F134:F136)</f>
         <v>32.9166666666667</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="41"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="34" t="n">
         <v>31.844</v>
       </c>
@@ -29596,10 +30485,26 @@
       <c r="F135" s="34" t="n">
         <v>32.91</v>
       </c>
+      <c r="G135" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C134:C136)</f>
+        <v>1.13014615573975</v>
+      </c>
+      <c r="H135" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D134:D136)</f>
+        <v>0.670000248756173</v>
+      </c>
+      <c r="I135" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E134:E136)</f>
+        <v>1.60980340414598</v>
+      </c>
+      <c r="J135" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F134:F136)</f>
+        <v>0.00577350269189921</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="41"/>
-      <c r="B136" s="43"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="34" t="n">
         <v>33.523</v>
       </c>
@@ -29612,9 +30517,13 @@
       <c r="F136" s="34" t="n">
         <v>32.92</v>
       </c>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="44"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="41"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="40" t="s">
         <v>14</v>
       </c>
@@ -29630,26 +30539,26 @@
       <c r="F137" s="34" t="n">
         <v>37.49</v>
       </c>
-      <c r="G137" s="3" t="n">
+      <c r="G137" s="41" t="n">
         <f aca="false">AVERAGE(C137:C139)</f>
         <v>33.9036666666667</v>
       </c>
-      <c r="H137" s="3" t="n">
+      <c r="H137" s="41" t="n">
         <f aca="false">AVERAGE(D137:D139)</f>
         <v>21.9476666666667</v>
       </c>
-      <c r="I137" s="3" t="n">
+      <c r="I137" s="41" t="n">
         <f aca="false">AVERAGE(E137:E139)</f>
         <v>11.956</v>
       </c>
-      <c r="J137" s="3" t="n">
+      <c r="J137" s="41" t="n">
         <f aca="false">AVERAGE(F137:F139)</f>
         <v>37.52</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="41"/>
-      <c r="B138" s="42"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="34" t="n">
         <v>33.851</v>
       </c>
@@ -29662,10 +30571,26 @@
       <c r="F138" s="34" t="n">
         <v>37.49</v>
       </c>
+      <c r="G138" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C137:C139)</f>
+        <v>1.94453499154254</v>
+      </c>
+      <c r="H138" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D137:D139)</f>
+        <v>1.37019353864092</v>
+      </c>
+      <c r="I138" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E137:E139)</f>
+        <v>0.581383694301793</v>
+      </c>
+      <c r="J138" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F137:F139)</f>
+        <v>0.0519615242270642</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="41"/>
-      <c r="B139" s="43"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="34" t="n">
         <v>35.874</v>
       </c>
@@ -29678,9 +30603,13 @@
       <c r="F139" s="34" t="n">
         <v>37.58</v>
       </c>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="41"/>
+      <c r="A140" s="42"/>
       <c r="B140" s="40" t="s">
         <v>8</v>
       </c>
@@ -29696,26 +30625,26 @@
       <c r="F140" s="34" t="n">
         <v>35</v>
       </c>
-      <c r="G140" s="3" t="n">
+      <c r="G140" s="41" t="n">
         <f aca="false">AVERAGE(C140:C142)</f>
         <v>29.6143333333333</v>
       </c>
-      <c r="H140" s="3" t="n">
+      <c r="H140" s="41" t="n">
         <f aca="false">AVERAGE(D140:D142)</f>
         <v>21.657</v>
       </c>
-      <c r="I140" s="3" t="n">
+      <c r="I140" s="41" t="n">
         <f aca="false">AVERAGE(E140:E142)</f>
         <v>7.95733333333333</v>
       </c>
-      <c r="J140" s="3" t="n">
+      <c r="J140" s="41" t="n">
         <f aca="false">AVERAGE(F140:F142)</f>
         <v>34.9433333333333</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="41"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="34" t="n">
         <v>29.97</v>
       </c>
@@ -29728,10 +30657,26 @@
       <c r="F141" s="34" t="n">
         <v>34.91</v>
       </c>
+      <c r="G141" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C140:C142)</f>
+        <v>0.868924814545731</v>
+      </c>
+      <c r="H141" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D140:D142)</f>
+        <v>0.595911906241183</v>
+      </c>
+      <c r="I141" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E140:E142)</f>
+        <v>0.277146772186387</v>
+      </c>
+      <c r="J141" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F140:F142)</f>
+        <v>0.0493288286231632</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="41"/>
-      <c r="B142" s="43"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="34" t="n">
         <v>30.249</v>
       </c>
@@ -29744,9 +30689,13 @@
       <c r="F142" s="34" t="n">
         <v>34.92</v>
       </c>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="41"/>
+      <c r="A143" s="42"/>
       <c r="B143" s="40" t="s">
         <v>13</v>
       </c>
@@ -29762,26 +30711,26 @@
       <c r="F143" s="34" t="n">
         <v>35.86</v>
       </c>
-      <c r="G143" s="3" t="n">
+      <c r="G143" s="41" t="n">
         <f aca="false">AVERAGE(C143:C145)</f>
         <v>30.523</v>
       </c>
-      <c r="H143" s="3" t="n">
+      <c r="H143" s="41" t="n">
         <f aca="false">AVERAGE(D143:D145)</f>
         <v>21.8413333333333</v>
       </c>
-      <c r="I143" s="3" t="n">
+      <c r="I143" s="41" t="n">
         <f aca="false">AVERAGE(E143:E145)</f>
         <v>8.68166666666667</v>
       </c>
-      <c r="J143" s="3" t="n">
+      <c r="J143" s="41" t="n">
         <f aca="false">AVERAGE(F143:F145)</f>
         <v>35.89</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="41"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="34" t="n">
         <v>30.832</v>
       </c>
@@ -29794,10 +30743,26 @@
       <c r="F144" s="34" t="n">
         <v>35.86</v>
       </c>
+      <c r="G144" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C143:C145)</f>
+        <v>1.15687553349529</v>
+      </c>
+      <c r="H144" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D143:D145)</f>
+        <v>0.967706739324126</v>
+      </c>
+      <c r="I144" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E143:E145)</f>
+        <v>0.399490091658521</v>
+      </c>
+      <c r="J144" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F143:F145)</f>
+        <v>0.0519615242270683</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="41"/>
-      <c r="B145" s="43"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="34" t="n">
         <v>31.494</v>
       </c>
@@ -29810,9 +30775,13 @@
       <c r="F145" s="34" t="n">
         <v>35.95</v>
       </c>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44"/>
+      <c r="J145" s="44"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="41"/>
+      <c r="A146" s="42"/>
       <c r="B146" s="40" t="s">
         <v>7</v>
       </c>
@@ -29828,26 +30797,26 @@
       <c r="F146" s="34" t="n">
         <v>44.63</v>
       </c>
-      <c r="G146" s="3" t="n">
+      <c r="G146" s="41" t="n">
         <f aca="false">AVERAGE(C146:C148)</f>
         <v>35.792</v>
       </c>
-      <c r="H146" s="3" t="n">
+      <c r="H146" s="41" t="n">
         <f aca="false">AVERAGE(D146:D148)</f>
         <v>21.3283333333333</v>
       </c>
-      <c r="I146" s="3" t="n">
+      <c r="I146" s="41" t="n">
         <f aca="false">AVERAGE(E146:E148)</f>
         <v>14.4636666666667</v>
       </c>
-      <c r="J146" s="3" t="n">
+      <c r="J146" s="41" t="n">
         <f aca="false">AVERAGE(F146:F148)</f>
         <v>44.63</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="41"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="34" t="n">
         <v>35.754</v>
       </c>
@@ -29860,10 +30829,26 @@
       <c r="F147" s="34" t="n">
         <v>44.63</v>
       </c>
+      <c r="G147" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C146:C148)</f>
+        <v>0.0958279708644647</v>
+      </c>
+      <c r="H147" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D146:D148)</f>
+        <v>0.410026015434793</v>
+      </c>
+      <c r="I147" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E146:E148)</f>
+        <v>0.345517486291698</v>
+      </c>
+      <c r="J147" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F146:F148)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="41"/>
-      <c r="B148" s="43"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="34" t="n">
         <v>35.901</v>
       </c>
@@ -29876,9 +30861,13 @@
       <c r="F148" s="34" t="n">
         <v>44.63</v>
       </c>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="44"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="41"/>
+      <c r="A149" s="42"/>
       <c r="B149" s="40" t="s">
         <v>12</v>
       </c>
@@ -29894,26 +30883,26 @@
       <c r="F149" s="34" t="n">
         <v>45.49</v>
       </c>
-      <c r="G149" s="3" t="n">
+      <c r="G149" s="41" t="n">
         <f aca="false">AVERAGE(C149:C151)</f>
         <v>37.3986666666667</v>
       </c>
-      <c r="H149" s="3" t="n">
+      <c r="H149" s="41" t="n">
         <f aca="false">AVERAGE(D149:D151)</f>
         <v>22.1893333333333</v>
       </c>
-      <c r="I149" s="3" t="n">
+      <c r="I149" s="41" t="n">
         <f aca="false">AVERAGE(E149:E151)</f>
         <v>15.2093333333333</v>
       </c>
-      <c r="J149" s="3" t="n">
+      <c r="J149" s="41" t="n">
         <f aca="false">AVERAGE(F149:F151)</f>
         <v>46</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="41"/>
-      <c r="B150" s="42"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="34" t="n">
         <v>37.375</v>
       </c>
@@ -29926,10 +30915,26 @@
       <c r="F150" s="34" t="n">
         <v>47.02</v>
       </c>
+      <c r="G150" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C149:C151)</f>
+        <v>0.647824307457921</v>
+      </c>
+      <c r="H150" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D149:D151)</f>
+        <v>0.20435589869963</v>
+      </c>
+      <c r="I150" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E149:E151)</f>
+        <v>0.497284961901457</v>
+      </c>
+      <c r="J150" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F149:F151)</f>
+        <v>0.883345911860128</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="44"/>
-      <c r="B151" s="43"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="34" t="n">
         <v>38.058</v>
       </c>
@@ -29942,6 +30947,10 @@
       <c r="F151" s="34" t="n">
         <v>45.49</v>
       </c>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="44"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="39" t="n">
@@ -29962,19 +30971,19 @@
       <c r="F152" s="34" t="n">
         <v>69.8</v>
       </c>
-      <c r="G152" s="3" t="n">
+      <c r="G152" s="41" t="n">
         <f aca="false">AVERAGE(C152:C154)</f>
         <v>65.9196666666667</v>
       </c>
-      <c r="H152" s="3" t="n">
+      <c r="H152" s="41" t="n">
         <f aca="false">AVERAGE(D152:D154)</f>
         <v>49.9403333333333</v>
       </c>
-      <c r="I152" s="3" t="n">
+      <c r="I152" s="41" t="n">
         <f aca="false">AVERAGE(E152:E154)</f>
         <v>15.9793333333333</v>
       </c>
-      <c r="J152" s="3" t="n">
+      <c r="J152" s="41" t="n">
         <f aca="false">AVERAGE(F152:F154)</f>
         <v>69.7333333333333</v>
       </c>
@@ -29988,7 +30997,7 @@
       </c>
       <c r="M152" s="3" t="n">
         <f aca="false">AVERAGE(I152,I158,I164,I170,I176)</f>
-        <v>21.1815333333333</v>
+        <v>21.5148666666667</v>
       </c>
       <c r="N152" s="3" t="n">
         <f aca="false">AVERAGE(J152,J158,J164,J170,J176)</f>
@@ -29996,8 +31005,8 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="41"/>
-      <c r="B153" s="42"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="34" t="n">
         <v>67.037</v>
       </c>
@@ -30009,6 +31018,22 @@
       </c>
       <c r="F153" s="34" t="n">
         <v>69.79</v>
+      </c>
+      <c r="G153" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C152:C154)</f>
+        <v>3.05148510291847</v>
+      </c>
+      <c r="H153" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D152:D154)</f>
+        <v>3.18286731318372</v>
+      </c>
+      <c r="I153" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E152:E154)</f>
+        <v>0.513129938059876</v>
+      </c>
+      <c r="J153" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F152:F154)</f>
+        <v>0.106926766215637</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -30016,8 +31041,8 @@
       <c r="N153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="41"/>
-      <c r="B154" s="43"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="34" t="n">
         <v>68.255</v>
       </c>
@@ -30030,13 +31055,17 @@
       <c r="F154" s="34" t="n">
         <v>69.61</v>
       </c>
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="44"/>
+      <c r="J154" s="44"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="41" t="n">
+      <c r="A155" s="42" t="n">
         <v>4000</v>
       </c>
       <c r="B155" s="40" t="s">
@@ -30054,19 +31083,19 @@
       <c r="F155" s="34" t="n">
         <v>71.79</v>
       </c>
-      <c r="G155" s="3" t="n">
+      <c r="G155" s="41" t="n">
         <f aca="false">AVERAGE(C155:C157)</f>
         <v>65.9073333333333</v>
       </c>
-      <c r="H155" s="3" t="n">
+      <c r="H155" s="41" t="n">
         <f aca="false">AVERAGE(D155:D157)</f>
         <v>48.2556666666667</v>
       </c>
-      <c r="I155" s="3" t="n">
+      <c r="I155" s="41" t="n">
         <f aca="false">AVERAGE(E155:E157)</f>
         <v>17.6516666666667</v>
       </c>
-      <c r="J155" s="3" t="n">
+      <c r="J155" s="41" t="n">
         <f aca="false">AVERAGE(F155:F157)</f>
         <v>71.79</v>
       </c>
@@ -30088,8 +31117,8 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="41"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="34" t="n">
         <v>66.034</v>
       </c>
@@ -30102,10 +31131,26 @@
       <c r="F156" s="34" t="n">
         <v>71.79</v>
       </c>
+      <c r="G156" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C155:C157)</f>
+        <v>0.516776869967432</v>
+      </c>
+      <c r="H156" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D155:D157)</f>
+        <v>0.709992488223172</v>
+      </c>
+      <c r="I156" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E155:E157)</f>
+        <v>0.29229152114513</v>
+      </c>
+      <c r="J156" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F155:F157)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="41"/>
-      <c r="B157" s="43"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="45"/>
       <c r="C157" s="34" t="n">
         <v>66.349</v>
       </c>
@@ -30118,9 +31163,13 @@
       <c r="F157" s="34" t="n">
         <v>71.79</v>
       </c>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="41"/>
+      <c r="A158" s="42"/>
       <c r="B158" s="40" t="s">
         <v>10</v>
       </c>
@@ -30136,26 +31185,26 @@
       <c r="F158" s="34" t="n">
         <v>66.18</v>
       </c>
-      <c r="G158" s="3" t="n">
+      <c r="G158" s="41" t="n">
         <f aca="false">AVERAGE(C158:C160)</f>
         <v>77.9056666666667</v>
       </c>
-      <c r="H158" s="3" t="n">
+      <c r="H158" s="41" t="n">
         <f aca="false">AVERAGE(D158:D160)</f>
         <v>48.2896666666667</v>
       </c>
-      <c r="I158" s="3" t="n">
+      <c r="I158" s="41" t="n">
         <f aca="false">AVERAGE(E158:E160)</f>
         <v>29.616</v>
       </c>
-      <c r="J158" s="3" t="n">
+      <c r="J158" s="41" t="n">
         <f aca="false">AVERAGE(F158:F160)</f>
         <v>66.18</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="41"/>
-      <c r="B159" s="42"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="34" t="n">
         <v>77.963</v>
       </c>
@@ -30168,10 +31217,26 @@
       <c r="F159" s="34" t="n">
         <v>66.19</v>
       </c>
+      <c r="G159" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C158:C160)</f>
+        <v>0.511416008092564</v>
+      </c>
+      <c r="H159" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D158:D160)</f>
+        <v>0.484698187879154</v>
+      </c>
+      <c r="I159" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E158:E160)</f>
+        <v>0.208870773446167</v>
+      </c>
+      <c r="J159" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F158:F160)</f>
+        <v>0.00999999999999801</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="41"/>
-      <c r="B160" s="43"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="34" t="n">
         <v>78.386</v>
       </c>
@@ -30184,9 +31249,13 @@
       <c r="F160" s="34" t="n">
         <v>66.17</v>
       </c>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="41"/>
+      <c r="A161" s="42"/>
       <c r="B161" s="40" t="s">
         <v>15</v>
       </c>
@@ -30202,26 +31271,26 @@
       <c r="F161" s="34" t="n">
         <v>113.44</v>
       </c>
-      <c r="G161" s="3" t="n">
+      <c r="G161" s="41" t="n">
         <f aca="false">AVERAGE(C161:C163)</f>
         <v>96.317</v>
       </c>
-      <c r="H161" s="3" t="n">
+      <c r="H161" s="41" t="n">
         <f aca="false">AVERAGE(D161:D163)</f>
         <v>48.357</v>
       </c>
-      <c r="I161" s="3" t="n">
+      <c r="I161" s="41" t="n">
         <f aca="false">AVERAGE(E161:E163)</f>
         <v>47.96</v>
       </c>
-      <c r="J161" s="3" t="n">
+      <c r="J161" s="41" t="n">
         <f aca="false">AVERAGE(F161:F163)</f>
         <v>113.433333333333</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="41"/>
-      <c r="B162" s="42"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="34" t="n">
         <v>96.366</v>
       </c>
@@ -30234,10 +31303,26 @@
       <c r="F162" s="34" t="n">
         <v>113.43</v>
       </c>
+      <c r="G162" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C161:C163)</f>
+        <v>0.284680522691667</v>
+      </c>
+      <c r="H162" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D161:D163)</f>
+        <v>0.6651195381283</v>
+      </c>
+      <c r="I162" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E161:E163)</f>
+        <v>0.754487243099578</v>
+      </c>
+      <c r="J162" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F161:F163)</f>
+        <v>0.00577350269189101</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="41"/>
-      <c r="B163" s="43"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="34" t="n">
         <v>96.574</v>
       </c>
@@ -30250,9 +31335,13 @@
       <c r="F163" s="34" t="n">
         <v>113.43</v>
       </c>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="44"/>
+      <c r="J163" s="44"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="41"/>
+      <c r="A164" s="42"/>
       <c r="B164" s="40" t="s">
         <v>9</v>
       </c>
@@ -30268,26 +31357,26 @@
       <c r="F164" s="34" t="n">
         <v>65.8</v>
       </c>
-      <c r="G164" s="3" t="n">
+      <c r="G164" s="41" t="n">
         <f aca="false">AVERAGE(C164:C166)</f>
         <v>67.248</v>
       </c>
-      <c r="H164" s="3" t="n">
+      <c r="H164" s="41" t="n">
         <f aca="false">AVERAGE(D164:D166)</f>
         <v>47.3693333333333</v>
       </c>
-      <c r="I164" s="3" t="n">
+      <c r="I164" s="41" t="n">
         <f aca="false">AVERAGE(E164:E166)</f>
         <v>19.8786666666667</v>
       </c>
-      <c r="J164" s="3" t="n">
+      <c r="J164" s="41" t="n">
         <f aca="false">AVERAGE(F164:F166)</f>
         <v>65.8033333333333</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="41"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="34" t="n">
         <v>67.639</v>
       </c>
@@ -30300,10 +31389,26 @@
       <c r="F165" s="34" t="n">
         <v>65.8</v>
       </c>
+      <c r="G165" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C164:C166)</f>
+        <v>1.11705908527705</v>
+      </c>
+      <c r="H165" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D164:D166)</f>
+        <v>0.826042573559821</v>
+      </c>
+      <c r="I165" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E164:E166)</f>
+        <v>0.485574230507895</v>
+      </c>
+      <c r="J165" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F164:F166)</f>
+        <v>0.00577350269189921</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="41"/>
-      <c r="B166" s="43"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="34" t="n">
         <v>68.117</v>
       </c>
@@ -30316,9 +31421,13 @@
       <c r="F166" s="34" t="n">
         <v>65.81</v>
       </c>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="44"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="41"/>
+      <c r="A167" s="42"/>
       <c r="B167" s="40" t="s">
         <v>14</v>
       </c>
@@ -30334,26 +31443,26 @@
       <c r="F167" s="34" t="n">
         <v>75.05</v>
       </c>
-      <c r="G167" s="3" t="n">
+      <c r="G167" s="41" t="n">
         <f aca="false">AVERAGE(C167:C169)</f>
         <v>72.905</v>
       </c>
-      <c r="H167" s="3" t="n">
+      <c r="H167" s="41" t="n">
         <f aca="false">AVERAGE(D167:D169)</f>
         <v>47.976</v>
       </c>
-      <c r="I167" s="3" t="n">
+      <c r="I167" s="41" t="n">
         <f aca="false">AVERAGE(E167:E169)</f>
         <v>24.929</v>
       </c>
-      <c r="J167" s="3" t="n">
+      <c r="J167" s="41" t="n">
         <f aca="false">AVERAGE(F167:F169)</f>
         <v>74.9366666666667</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="41"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="34" t="n">
         <v>72.635</v>
       </c>
@@ -30366,10 +31475,26 @@
       <c r="F168" s="34" t="n">
         <v>74.79</v>
       </c>
+      <c r="G168" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C167:C169)</f>
+        <v>0.613322101346428</v>
+      </c>
+      <c r="H168" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D167:D169)</f>
+        <v>0.484674117320081</v>
+      </c>
+      <c r="I168" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E167:E169)</f>
+        <v>0.153293835492495</v>
+      </c>
+      <c r="J168" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F167:F169)</f>
+        <v>0.133166562369583</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="41"/>
-      <c r="B169" s="43"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="45"/>
       <c r="C169" s="34" t="n">
         <v>73.607</v>
       </c>
@@ -30382,9 +31507,13 @@
       <c r="F169" s="34" t="n">
         <v>74.97</v>
       </c>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="44"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="41"/>
+      <c r="A170" s="42"/>
       <c r="B170" s="40" t="s">
         <v>8</v>
       </c>
@@ -30400,26 +31529,26 @@
       <c r="F170" s="34" t="n">
         <v>69.79</v>
       </c>
-      <c r="G170" s="3" t="n">
+      <c r="G170" s="41" t="n">
         <f aca="false">AVERAGE(C170:C172)</f>
         <v>59.6526666666667</v>
       </c>
-      <c r="H170" s="3" t="n">
+      <c r="H170" s="41" t="n">
         <f aca="false">AVERAGE(D170:D172)</f>
         <v>44.606</v>
       </c>
-      <c r="I170" s="3" t="n">
+      <c r="I170" s="41" t="n">
         <f aca="false">AVERAGE(E170:E172)</f>
         <v>15.0466666666667</v>
       </c>
-      <c r="J170" s="3" t="n">
+      <c r="J170" s="41" t="n">
         <f aca="false">AVERAGE(F170:F172)</f>
         <v>69.73</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="41"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="43"/>
       <c r="C171" s="34" t="n">
         <v>58.334</v>
       </c>
@@ -30432,10 +31561,26 @@
       <c r="F171" s="34" t="n">
         <v>69.61</v>
       </c>
+      <c r="G171" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C170:C172)</f>
+        <v>2.48939858868228</v>
+      </c>
+      <c r="H171" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D170:D172)</f>
+        <v>1.57636068207755</v>
+      </c>
+      <c r="I171" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E170:E172)</f>
+        <v>0.958712852387686</v>
+      </c>
+      <c r="J171" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F170:F172)</f>
+        <v>0.103923048454137</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="41"/>
-      <c r="B172" s="43"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="34" t="n">
         <v>62.524</v>
       </c>
@@ -30448,9 +31593,13 @@
       <c r="F172" s="34" t="n">
         <v>69.79</v>
       </c>
+      <c r="G172" s="44"/>
+      <c r="H172" s="44"/>
+      <c r="I172" s="44"/>
+      <c r="J172" s="44"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="41"/>
+      <c r="A173" s="42"/>
       <c r="B173" s="40" t="s">
         <v>13</v>
       </c>
@@ -30466,26 +31615,26 @@
       <c r="F173" s="34" t="n">
         <v>71.79</v>
       </c>
-      <c r="G173" s="3" t="n">
+      <c r="G173" s="41" t="n">
         <f aca="false">AVERAGE(C173:C175)</f>
         <v>67.667</v>
       </c>
-      <c r="H173" s="3" t="n">
+      <c r="H173" s="41" t="n">
         <f aca="false">AVERAGE(D173:D175)</f>
         <v>49.2483333333333</v>
       </c>
-      <c r="I173" s="3" t="n">
+      <c r="I173" s="41" t="n">
         <f aca="false">AVERAGE(E173:E175)</f>
         <v>18.4186666666667</v>
       </c>
-      <c r="J173" s="3" t="n">
+      <c r="J173" s="41" t="n">
         <f aca="false">AVERAGE(F173:F175)</f>
         <v>71.5866666666667</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="41"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="34" t="n">
         <v>67.999</v>
       </c>
@@ -30498,10 +31647,26 @@
       <c r="F174" s="34" t="n">
         <v>71.19</v>
       </c>
+      <c r="G174" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C173:C175)</f>
+        <v>0.645563319899756</v>
+      </c>
+      <c r="H174" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D173:D175)</f>
+        <v>1.68132755087559</v>
+      </c>
+      <c r="I174" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E173:E175)</f>
+        <v>1.14137913654199</v>
+      </c>
+      <c r="J174" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F173:F175)</f>
+        <v>0.343559795862868</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="41"/>
-      <c r="B175" s="43"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="34" t="n">
         <v>68.079</v>
       </c>
@@ -30514,9 +31679,13 @@
       <c r="F175" s="34" t="n">
         <v>71.78</v>
       </c>
+      <c r="G175" s="44"/>
+      <c r="H175" s="44"/>
+      <c r="I175" s="44"/>
+      <c r="J175" s="44"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="41"/>
+      <c r="A176" s="42"/>
       <c r="B176" s="40" t="s">
         <v>7</v>
       </c>
@@ -30527,31 +31696,31 @@
         <v>44.986</v>
       </c>
       <c r="E176" s="34" t="n">
-        <v>20.885</v>
+        <v>25.885</v>
       </c>
       <c r="F176" s="34" t="n">
         <v>89.05</v>
       </c>
-      <c r="G176" s="3" t="n">
+      <c r="G176" s="41" t="n">
         <f aca="false">AVERAGE(C176:C178)</f>
         <v>72.7186666666667</v>
       </c>
-      <c r="H176" s="3" t="n">
+      <c r="H176" s="41" t="n">
         <f aca="false">AVERAGE(D176:D178)</f>
         <v>45.6806666666667</v>
       </c>
-      <c r="I176" s="3" t="n">
+      <c r="I176" s="41" t="n">
         <f aca="false">AVERAGE(E176:E178)</f>
-        <v>25.387</v>
-      </c>
-      <c r="J176" s="3" t="n">
+        <v>27.0536666666667</v>
+      </c>
+      <c r="J176" s="41" t="n">
         <f aca="false">AVERAGE(F176:F178)</f>
         <v>89.05</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41"/>
-      <c r="B177" s="42"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="34" t="n">
         <v>72.093</v>
       </c>
@@ -30564,10 +31733,26 @@
       <c r="F177" s="34" t="n">
         <v>89.05</v>
       </c>
+      <c r="G177" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C176:C178)</f>
+        <v>2.27302668997382</v>
+      </c>
+      <c r="H177" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D176:D178)</f>
+        <v>0.70470584880029</v>
+      </c>
+      <c r="I177" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E176:E178)</f>
+        <v>1.57441174199551</v>
+      </c>
+      <c r="J177" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F176:F178)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41"/>
-      <c r="B178" s="43"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="34" t="n">
         <v>75.239</v>
       </c>
@@ -30580,9 +31765,13 @@
       <c r="F178" s="34" t="n">
         <v>89.05</v>
       </c>
+      <c r="G178" s="44"/>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
+      <c r="J178" s="44"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="41"/>
+      <c r="A179" s="42"/>
       <c r="B179" s="40" t="s">
         <v>12</v>
       </c>
@@ -30598,26 +31787,26 @@
       <c r="F179" s="34" t="n">
         <v>91.05</v>
       </c>
-      <c r="G179" s="3" t="n">
+      <c r="G179" s="41" t="n">
         <f aca="false">AVERAGE(C179:C181)</f>
         <v>78.2676666666667</v>
       </c>
-      <c r="H179" s="3" t="n">
+      <c r="H179" s="41" t="n">
         <f aca="false">AVERAGE(D179:D181)</f>
         <v>47.7003333333333</v>
       </c>
-      <c r="I179" s="3" t="n">
+      <c r="I179" s="41" t="n">
         <f aca="false">AVERAGE(E179:E181)</f>
         <v>30.5373333333333</v>
       </c>
-      <c r="J179" s="3" t="n">
+      <c r="J179" s="41" t="n">
         <f aca="false">AVERAGE(F179:F181)</f>
         <v>90.9166666666667</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="41"/>
-      <c r="B180" s="42"/>
+      <c r="A180" s="42"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="34" t="n">
         <v>79.415</v>
       </c>
@@ -30630,10 +31819,26 @@
       <c r="F180" s="34" t="n">
         <v>90.85</v>
       </c>
+      <c r="G180" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(C179:C181)</f>
+        <v>3.38893498511455</v>
+      </c>
+      <c r="H180" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(D179:D181)</f>
+        <v>2.44164582471196</v>
+      </c>
+      <c r="I180" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(E179:E181)</f>
+        <v>1.00983975626499</v>
+      </c>
+      <c r="J180" s="44" t="n">
+        <f aca="false">_xlfn.STDEV.S(F179:F181)</f>
+        <v>0.115470053837927</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="44"/>
-      <c r="B181" s="43"/>
+      <c r="A181" s="46"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="34" t="n">
         <v>80.934</v>
       </c>
@@ -30646,6 +31851,10 @@
       <c r="F181" s="34" t="n">
         <v>90.85</v>
       </c>
+      <c r="G181" s="44"/>
+      <c r="H181" s="44"/>
+      <c r="I181" s="44"/>
+      <c r="J181" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
